--- a/database/industries/siman/sekhouz/balancesheet/quarterly.xlsx
+++ b/database/industries/siman/sekhouz/balancesheet/quarterly.xlsx
@@ -189,9 +189,14 @@
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="31" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -216,6 +221,21 @@
       <c r="H1" s="2">
         <v/>
       </c>
+      <c r="I1" s="2">
+        <v/>
+      </c>
+      <c r="J1" s="2">
+        <v/>
+      </c>
+      <c r="K1" s="2">
+        <v/>
+      </c>
+      <c r="L1" s="2">
+        <v/>
+      </c>
+      <c r="M1" s="2">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="3" t="inlineStr">
@@ -241,6 +261,21 @@
       <c r="H2" s="2">
         <v/>
       </c>
+      <c r="I2" s="2">
+        <v/>
+      </c>
+      <c r="J2" s="2">
+        <v/>
+      </c>
+      <c r="K2" s="2">
+        <v/>
+      </c>
+      <c r="L2" s="2">
+        <v/>
+      </c>
+      <c r="M2" s="2">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="B3" s="4" t="inlineStr">
@@ -266,6 +301,21 @@
       <c r="H3" s="2">
         <v/>
       </c>
+      <c r="I3" s="2">
+        <v/>
+      </c>
+      <c r="J3" s="2">
+        <v/>
+      </c>
+      <c r="K3" s="2">
+        <v/>
+      </c>
+      <c r="L3" s="2">
+        <v/>
+      </c>
+      <c r="M3" s="2">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="2">
@@ -289,6 +339,21 @@
       <c r="H4" s="2">
         <v/>
       </c>
+      <c r="I4" s="2">
+        <v/>
+      </c>
+      <c r="J4" s="2">
+        <v/>
+      </c>
+      <c r="K4" s="2">
+        <v/>
+      </c>
+      <c r="L4" s="2">
+        <v/>
+      </c>
+      <c r="M4" s="2">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="5" t="inlineStr">
@@ -314,6 +379,21 @@
       <c r="H5" s="5">
         <v/>
       </c>
+      <c r="I5" s="5">
+        <v/>
+      </c>
+      <c r="J5" s="5">
+        <v/>
+      </c>
+      <c r="K5" s="5">
+        <v/>
+      </c>
+      <c r="L5" s="5">
+        <v/>
+      </c>
+      <c r="M5" s="5">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="6" t="inlineStr">
@@ -339,6 +419,21 @@
       <c r="H6" s="5">
         <v/>
       </c>
+      <c r="I6" s="5">
+        <v/>
+      </c>
+      <c r="J6" s="5">
+        <v/>
+      </c>
+      <c r="K6" s="5">
+        <v/>
+      </c>
+      <c r="L6" s="5">
+        <v/>
+      </c>
+      <c r="M6" s="5">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="2">
@@ -362,6 +457,21 @@
       <c r="H7" s="2">
         <v/>
       </c>
+      <c r="I7" s="2">
+        <v/>
+      </c>
+      <c r="J7" s="2">
+        <v/>
+      </c>
+      <c r="K7" s="2">
+        <v/>
+      </c>
+      <c r="L7" s="2">
+        <v/>
+      </c>
+      <c r="M7" s="2">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
@@ -374,25 +484,50 @@
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
+          <t>فصل اول منتهی به 1399/03</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>فصل دوم منتهی به 1399/06</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>فصل سوم منتهی به 1399/09</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>فصل چهارم منتهی به 1399/12</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>فصل اول منتهی به 1400/03</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr">
+        <is>
           <t>فصل دوم منتهی به 1400/06</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="J8" s="7" t="inlineStr">
         <is>
           <t>فصل سوم منتهی به 1400/09</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr">
+      <c r="K8" s="7" t="inlineStr">
         <is>
           <t>فصل چهارم منتهی به 1400/12</t>
         </is>
       </c>
-      <c r="G8" s="7" t="inlineStr">
+      <c r="L8" s="7" t="inlineStr">
         <is>
           <t>فصل اول منتهی به 1401/03</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr">
+      <c r="M8" s="7" t="inlineStr">
         <is>
           <t>فصل دوم منتهی به 1401/06</t>
         </is>
@@ -409,25 +544,50 @@
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
+          <t>1399-04-30</t>
+        </is>
+      </c>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>1399-09-22 (3)</t>
+        </is>
+      </c>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>1399-10-30</t>
+        </is>
+      </c>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>1401-02-31 (11)</t>
+        </is>
+      </c>
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>1400-04-29</t>
+        </is>
+      </c>
+      <c r="I9" s="10" t="inlineStr">
+        <is>
           <t>1400-09-17 (3)</t>
         </is>
       </c>
-      <c r="E9" s="10" t="inlineStr">
+      <c r="J9" s="10" t="inlineStr">
         <is>
           <t>1400-10-30</t>
         </is>
       </c>
-      <c r="F9" s="10" t="inlineStr">
+      <c r="K9" s="10" t="inlineStr">
         <is>
           <t>1401-07-30 (5)</t>
         </is>
       </c>
-      <c r="G9" s="10" t="inlineStr">
+      <c r="L9" s="10" t="inlineStr">
         <is>
           <t>1401-05-01</t>
         </is>
       </c>
-      <c r="H9" s="10" t="inlineStr">
+      <c r="M9" s="10" t="inlineStr">
         <is>
           <t>1401-07-30</t>
         </is>
@@ -455,6 +615,21 @@
       <c r="H10" s="12">
         <v/>
       </c>
+      <c r="I10" s="12">
+        <v/>
+      </c>
+      <c r="J10" s="12">
+        <v/>
+      </c>
+      <c r="K10" s="12">
+        <v/>
+      </c>
+      <c r="L10" s="12">
+        <v/>
+      </c>
+      <c r="M10" s="12">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="13" t="inlineStr">
@@ -480,6 +655,21 @@
       <c r="H11" s="14">
         <v/>
       </c>
+      <c r="I11" s="14">
+        <v/>
+      </c>
+      <c r="J11" s="14">
+        <v/>
+      </c>
+      <c r="K11" s="14">
+        <v/>
+      </c>
+      <c r="L11" s="14">
+        <v/>
+      </c>
+      <c r="M11" s="14">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="15" t="inlineStr">
@@ -491,18 +681,33 @@
         <v/>
       </c>
       <c r="D12" s="16">
+        <v>971912</v>
+      </c>
+      <c r="E12" s="16">
+        <v>882567</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1087317</v>
+      </c>
+      <c r="G12" s="16">
+        <v>812517</v>
+      </c>
+      <c r="H12" s="16">
+        <v>556141</v>
+      </c>
+      <c r="I12" s="16">
         <v>1367508</v>
       </c>
-      <c r="E12" s="16">
+      <c r="J12" s="16">
         <v>1609884</v>
       </c>
-      <c r="F12" s="16">
+      <c r="K12" s="16">
         <v>1664891</v>
       </c>
-      <c r="G12" s="16">
+      <c r="L12" s="16">
         <v>1861205</v>
       </c>
-      <c r="H12" s="16">
+      <c r="M12" s="16">
         <v>2173673</v>
       </c>
     </row>
@@ -516,18 +721,33 @@
         <v/>
       </c>
       <c r="D13" s="12">
+        <v>47210</v>
+      </c>
+      <c r="E13" s="12">
+        <v>157210</v>
+      </c>
+      <c r="F13" s="12">
+        <v>307209</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1367373</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1517373</v>
+      </c>
+      <c r="I13" s="12">
         <v>1067373</v>
       </c>
-      <c r="E13" s="12">
+      <c r="J13" s="12">
         <v>1252173</v>
       </c>
-      <c r="F13" s="12">
+      <c r="K13" s="12">
         <v>2067173</v>
       </c>
-      <c r="G13" s="12">
+      <c r="L13" s="12">
         <v>2867173</v>
       </c>
-      <c r="H13" s="12">
+      <c r="M13" s="12">
         <v>2867173</v>
       </c>
     </row>
@@ -541,18 +761,33 @@
         <v/>
       </c>
       <c r="D14" s="16">
+        <v>819389</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1489523</v>
+      </c>
+      <c r="F14" s="16">
+        <v>861687</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1238474</v>
+      </c>
+      <c r="H14" s="16">
+        <v>1199429</v>
+      </c>
+      <c r="I14" s="16">
         <v>1315883</v>
       </c>
-      <c r="E14" s="16">
+      <c r="J14" s="16">
         <v>1158420</v>
       </c>
-      <c r="F14" s="16">
+      <c r="K14" s="16">
         <v>1299988</v>
       </c>
-      <c r="G14" s="16">
+      <c r="L14" s="16">
         <v>995205</v>
       </c>
-      <c r="H14" s="16">
+      <c r="M14" s="16">
         <v>1867379</v>
       </c>
     </row>
@@ -566,18 +801,33 @@
         <v/>
       </c>
       <c r="D15" s="12">
+        <v>895125</v>
+      </c>
+      <c r="E15" s="12">
+        <v>789872</v>
+      </c>
+      <c r="F15" s="12">
+        <v>872315</v>
+      </c>
+      <c r="G15" s="12">
+        <v>1009729</v>
+      </c>
+      <c r="H15" s="12">
+        <v>1199729</v>
+      </c>
+      <c r="I15" s="12">
         <v>1240444</v>
       </c>
-      <c r="E15" s="12">
+      <c r="J15" s="12">
         <v>1812740</v>
       </c>
-      <c r="F15" s="12">
+      <c r="K15" s="12">
         <v>2041796</v>
       </c>
-      <c r="G15" s="12">
+      <c r="L15" s="12">
         <v>2305340</v>
       </c>
-      <c r="H15" s="12">
+      <c r="M15" s="12">
         <v>2517279</v>
       </c>
     </row>
@@ -591,18 +841,33 @@
         <v/>
       </c>
       <c r="D16" s="16">
+        <v>613327</v>
+      </c>
+      <c r="E16" s="16">
+        <v>513964</v>
+      </c>
+      <c r="F16" s="16">
+        <v>889331</v>
+      </c>
+      <c r="G16" s="16">
+        <v>395222</v>
+      </c>
+      <c r="H16" s="16">
+        <v>823314</v>
+      </c>
+      <c r="I16" s="16">
         <v>579776</v>
       </c>
-      <c r="E16" s="16">
+      <c r="J16" s="16">
         <v>766777</v>
       </c>
-      <c r="F16" s="16">
+      <c r="K16" s="16">
         <v>751845</v>
       </c>
-      <c r="G16" s="16">
+      <c r="L16" s="16">
         <v>691544</v>
       </c>
-      <c r="H16" s="16">
+      <c r="M16" s="16">
         <v>345123</v>
       </c>
     </row>
@@ -616,7 +881,7 @@
         <v/>
       </c>
       <c r="D17" s="12">
-        <v>0</v>
+        <v>3154</v>
       </c>
       <c r="E17" s="12">
         <v>0</v>
@@ -628,6 +893,21 @@
         <v>0</v>
       </c>
       <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
         <v>0</v>
       </c>
     </row>
@@ -641,18 +921,33 @@
         <v/>
       </c>
       <c r="D18" s="18">
+        <v>3350117</v>
+      </c>
+      <c r="E18" s="18">
+        <v>3833136</v>
+      </c>
+      <c r="F18" s="18">
+        <v>4017859</v>
+      </c>
+      <c r="G18" s="18">
+        <v>4823315</v>
+      </c>
+      <c r="H18" s="18">
+        <v>5295986</v>
+      </c>
+      <c r="I18" s="18">
         <v>5570984</v>
       </c>
-      <c r="E18" s="18">
+      <c r="J18" s="18">
         <v>6599994</v>
       </c>
-      <c r="F18" s="18">
+      <c r="K18" s="18">
         <v>7825693</v>
       </c>
-      <c r="G18" s="18">
+      <c r="L18" s="18">
         <v>8720467</v>
       </c>
-      <c r="H18" s="18">
+      <c r="M18" s="18">
         <v>9770627</v>
       </c>
     </row>
@@ -666,18 +961,33 @@
         <v/>
       </c>
       <c r="D19" s="12">
+        <v>4985</v>
+      </c>
+      <c r="E19" s="12">
+        <v>7717</v>
+      </c>
+      <c r="F19" s="12">
+        <v>5996</v>
+      </c>
+      <c r="G19" s="12">
+        <v>10064</v>
+      </c>
+      <c r="H19" s="12">
+        <v>12132</v>
+      </c>
+      <c r="I19" s="12">
         <v>12455</v>
       </c>
-      <c r="E19" s="12">
+      <c r="J19" s="12">
         <v>11273</v>
       </c>
-      <c r="F19" s="12">
+      <c r="K19" s="12">
         <v>11778</v>
       </c>
-      <c r="G19" s="12">
+      <c r="L19" s="12">
         <v>12444</v>
       </c>
-      <c r="H19" s="12">
+      <c r="M19" s="12">
         <v>16094</v>
       </c>
     </row>
@@ -691,18 +1001,33 @@
         <v/>
       </c>
       <c r="D20" s="16">
+        <v>815984</v>
+      </c>
+      <c r="E20" s="16">
+        <v>831551</v>
+      </c>
+      <c r="F20" s="16">
+        <v>766722</v>
+      </c>
+      <c r="G20" s="16">
+        <v>725758</v>
+      </c>
+      <c r="H20" s="16">
+        <v>835948</v>
+      </c>
+      <c r="I20" s="16">
         <v>812924</v>
       </c>
-      <c r="E20" s="16">
+      <c r="J20" s="16">
         <v>722385</v>
       </c>
-      <c r="F20" s="16">
+      <c r="K20" s="16">
         <v>819464</v>
       </c>
-      <c r="G20" s="16">
+      <c r="L20" s="16">
         <v>819464</v>
       </c>
-      <c r="H20" s="16">
+      <c r="M20" s="16">
         <v>877496</v>
       </c>
     </row>
@@ -730,6 +1055,21 @@
       <c r="H21" s="12">
         <v>0</v>
       </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="B22" s="15" t="inlineStr">
@@ -741,18 +1081,33 @@
         <v/>
       </c>
       <c r="D22" s="16">
+        <v>997856</v>
+      </c>
+      <c r="E22" s="16">
+        <v>970228</v>
+      </c>
+      <c r="F22" s="16">
+        <v>1034833</v>
+      </c>
+      <c r="G22" s="16">
+        <v>934792</v>
+      </c>
+      <c r="H22" s="16">
+        <v>943387</v>
+      </c>
+      <c r="I22" s="16">
         <v>1095977</v>
       </c>
-      <c r="E22" s="16">
+      <c r="J22" s="16">
         <v>1083808</v>
       </c>
-      <c r="F22" s="16">
+      <c r="K22" s="16">
         <v>1350535</v>
       </c>
-      <c r="G22" s="16">
+      <c r="L22" s="16">
         <v>1361432</v>
       </c>
-      <c r="H22" s="16">
+      <c r="M22" s="16">
         <v>1349065</v>
       </c>
     </row>
@@ -766,20 +1121,35 @@
         <v/>
       </c>
       <c r="D23" s="12">
+        <v>66760</v>
+      </c>
+      <c r="E23" s="12">
+        <v>66760</v>
+      </c>
+      <c r="F23" s="12">
+        <v>100012</v>
+      </c>
+      <c r="G23" s="12">
         <v>93030</v>
-      </c>
-      <c r="E23" s="12">
-        <v>93030</v>
-      </c>
-      <c r="F23" s="12">
-        <v>93030</v>
-      </c>
-      <c r="G23" s="12">
-        <v>93532</v>
       </c>
       <c r="H23" s="12">
         <v>93030</v>
       </c>
+      <c r="I23" s="12">
+        <v>93030</v>
+      </c>
+      <c r="J23" s="12">
+        <v>93030</v>
+      </c>
+      <c r="K23" s="12">
+        <v>93030</v>
+      </c>
+      <c r="L23" s="12">
+        <v>93532</v>
+      </c>
+      <c r="M23" s="12">
+        <v>93030</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" s="15" t="inlineStr">
@@ -815,6 +1185,31 @@
           <t>-</t>
         </is>
       </c>
+      <c r="I24" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J24" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K24" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L24" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M24" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="B25" s="11" t="inlineStr">
@@ -826,18 +1221,33 @@
         <v/>
       </c>
       <c r="D25" s="12">
+        <v>13530</v>
+      </c>
+      <c r="E25" s="12">
+        <v>43983</v>
+      </c>
+      <c r="F25" s="12">
+        <v>49667</v>
+      </c>
+      <c r="G25" s="12">
+        <v>33376</v>
+      </c>
+      <c r="H25" s="12">
+        <v>33376</v>
+      </c>
+      <c r="I25" s="12">
         <v>36171</v>
       </c>
-      <c r="E25" s="12">
+      <c r="J25" s="12">
         <v>36918</v>
       </c>
-      <c r="F25" s="12">
+      <c r="K25" s="12">
         <v>37781</v>
       </c>
-      <c r="G25" s="12">
+      <c r="L25" s="12">
         <v>39071</v>
       </c>
-      <c r="H25" s="12">
+      <c r="M25" s="12">
         <v>29567</v>
       </c>
     </row>
@@ -851,18 +1261,33 @@
         <v/>
       </c>
       <c r="D26" s="18">
+        <v>1899115</v>
+      </c>
+      <c r="E26" s="18">
+        <v>1920239</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1957230</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1797020</v>
+      </c>
+      <c r="H26" s="18">
+        <v>1917873</v>
+      </c>
+      <c r="I26" s="18">
         <v>2050557</v>
       </c>
-      <c r="E26" s="18">
+      <c r="J26" s="18">
         <v>1947414</v>
       </c>
-      <c r="F26" s="18">
+      <c r="K26" s="18">
         <v>2312588</v>
       </c>
-      <c r="G26" s="18">
+      <c r="L26" s="18">
         <v>2325943</v>
       </c>
-      <c r="H26" s="18">
+      <c r="M26" s="18">
         <v>2365252</v>
       </c>
     </row>
@@ -876,18 +1301,33 @@
         <v/>
       </c>
       <c r="D27" s="20">
+        <v>5249232</v>
+      </c>
+      <c r="E27" s="20">
+        <v>5753375</v>
+      </c>
+      <c r="F27" s="20">
+        <v>5975089</v>
+      </c>
+      <c r="G27" s="20">
+        <v>6620335</v>
+      </c>
+      <c r="H27" s="20">
+        <v>7213859</v>
+      </c>
+      <c r="I27" s="20">
         <v>7621541</v>
       </c>
-      <c r="E27" s="20">
+      <c r="J27" s="20">
         <v>8547408</v>
       </c>
-      <c r="F27" s="20">
+      <c r="K27" s="20">
         <v>10138281</v>
       </c>
-      <c r="G27" s="20">
+      <c r="L27" s="20">
         <v>11046410</v>
       </c>
-      <c r="H27" s="20">
+      <c r="M27" s="20">
         <v>12135879</v>
       </c>
     </row>
@@ -915,6 +1355,21 @@
       <c r="H28" s="14">
         <v/>
       </c>
+      <c r="I28" s="14">
+        <v/>
+      </c>
+      <c r="J28" s="14">
+        <v/>
+      </c>
+      <c r="K28" s="14">
+        <v/>
+      </c>
+      <c r="L28" s="14">
+        <v/>
+      </c>
+      <c r="M28" s="14">
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="B29" s="15" t="inlineStr">
@@ -926,18 +1381,33 @@
         <v/>
       </c>
       <c r="D29" s="16">
+        <v>1033942</v>
+      </c>
+      <c r="E29" s="16">
+        <v>776884</v>
+      </c>
+      <c r="F29" s="16">
+        <v>612886</v>
+      </c>
+      <c r="G29" s="16">
+        <v>820268</v>
+      </c>
+      <c r="H29" s="16">
+        <v>954300</v>
+      </c>
+      <c r="I29" s="16">
         <v>1348850</v>
       </c>
-      <c r="E29" s="16">
+      <c r="J29" s="16">
         <v>475513</v>
       </c>
-      <c r="F29" s="16">
+      <c r="K29" s="16">
         <v>1571666</v>
       </c>
-      <c r="G29" s="16">
+      <c r="L29" s="16">
         <v>1376887</v>
       </c>
-      <c r="H29" s="16">
+      <c r="M29" s="16">
         <v>3120853</v>
       </c>
     </row>
@@ -975,6 +1445,31 @@
           <t>-</t>
         </is>
       </c>
+      <c r="I30" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J30" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K30" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L30" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M30" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="B31" s="15" t="inlineStr">
@@ -986,18 +1481,33 @@
         <v/>
       </c>
       <c r="D31" s="16">
+        <v>265970</v>
+      </c>
+      <c r="E31" s="16">
+        <v>187323</v>
+      </c>
+      <c r="F31" s="16">
+        <v>509664</v>
+      </c>
+      <c r="G31" s="16">
+        <v>591696</v>
+      </c>
+      <c r="H31" s="16">
+        <v>145482</v>
+      </c>
+      <c r="I31" s="16">
         <v>706472</v>
       </c>
-      <c r="E31" s="16">
+      <c r="J31" s="16">
         <v>997700</v>
       </c>
-      <c r="F31" s="16">
+      <c r="K31" s="16">
         <v>1007990</v>
       </c>
-      <c r="G31" s="16">
+      <c r="L31" s="16">
         <v>535412</v>
       </c>
-      <c r="H31" s="16">
+      <c r="M31" s="16">
         <v>763201</v>
       </c>
     </row>
@@ -1011,18 +1521,33 @@
         <v/>
       </c>
       <c r="D32" s="12">
+        <v>0</v>
+      </c>
+      <c r="E32" s="12">
+        <v>47594</v>
+      </c>
+      <c r="F32" s="12">
+        <v>0</v>
+      </c>
+      <c r="G32" s="12">
+        <v>194106</v>
+      </c>
+      <c r="H32" s="12">
+        <v>237480</v>
+      </c>
+      <c r="I32" s="12">
         <v>317376</v>
       </c>
-      <c r="E32" s="12">
+      <c r="J32" s="12">
         <v>747424</v>
       </c>
-      <c r="F32" s="12">
+      <c r="K32" s="12">
         <v>257899</v>
       </c>
-      <c r="G32" s="12">
+      <c r="L32" s="12">
         <v>302873</v>
       </c>
-      <c r="H32" s="12">
+      <c r="M32" s="12">
         <v>307329</v>
       </c>
     </row>
@@ -1036,18 +1561,33 @@
         <v/>
       </c>
       <c r="D33" s="16">
+        <v>1445997</v>
+      </c>
+      <c r="E33" s="16">
+        <v>1015014</v>
+      </c>
+      <c r="F33" s="16">
+        <v>204520</v>
+      </c>
+      <c r="G33" s="16">
+        <v>107917</v>
+      </c>
+      <c r="H33" s="16">
+        <v>2646779</v>
+      </c>
+      <c r="I33" s="16">
         <v>1398079</v>
       </c>
-      <c r="E33" s="16">
+      <c r="J33" s="16">
         <v>455772</v>
       </c>
-      <c r="F33" s="16">
+      <c r="K33" s="16">
         <v>226929</v>
       </c>
-      <c r="G33" s="16">
+      <c r="L33" s="16">
         <v>5019674</v>
       </c>
-      <c r="H33" s="16">
+      <c r="M33" s="16">
         <v>2330743</v>
       </c>
     </row>
@@ -1061,18 +1601,33 @@
         <v/>
       </c>
       <c r="D34" s="12">
-        <v>0</v>
+        <v>541901</v>
       </c>
       <c r="E34" s="12">
-        <v>0</v>
+        <v>284285</v>
       </c>
       <c r="F34" s="12">
-        <v>0</v>
+        <v>175955</v>
       </c>
       <c r="G34" s="12">
-        <v>0</v>
+        <v>86865</v>
       </c>
       <c r="H34" s="12">
+        <v>18955</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+      <c r="L34" s="12">
+        <v>0</v>
+      </c>
+      <c r="M34" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1100,6 +1655,21 @@
       <c r="H35" s="16">
         <v>0</v>
       </c>
+      <c r="I35" s="16">
+        <v>0</v>
+      </c>
+      <c r="J35" s="16">
+        <v>0</v>
+      </c>
+      <c r="K35" s="16">
+        <v>0</v>
+      </c>
+      <c r="L35" s="16">
+        <v>0</v>
+      </c>
+      <c r="M35" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="B36" s="11" t="inlineStr">
@@ -1125,6 +1695,21 @@
       <c r="H36" s="12">
         <v>0</v>
       </c>
+      <c r="I36" s="12">
+        <v>0</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0</v>
+      </c>
+      <c r="K36" s="12">
+        <v>0</v>
+      </c>
+      <c r="L36" s="12">
+        <v>0</v>
+      </c>
+      <c r="M36" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="B37" s="17" t="inlineStr">
@@ -1136,18 +1721,33 @@
         <v/>
       </c>
       <c r="D37" s="18">
+        <v>3287810</v>
+      </c>
+      <c r="E37" s="18">
+        <v>2311100</v>
+      </c>
+      <c r="F37" s="18">
+        <v>1503025</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1800852</v>
+      </c>
+      <c r="H37" s="18">
+        <v>4002996</v>
+      </c>
+      <c r="I37" s="18">
         <v>3770777</v>
       </c>
-      <c r="E37" s="18">
+      <c r="J37" s="18">
         <v>2676409</v>
       </c>
-      <c r="F37" s="18">
+      <c r="K37" s="18">
         <v>3064484</v>
       </c>
-      <c r="G37" s="18">
+      <c r="L37" s="18">
         <v>7234846</v>
       </c>
-      <c r="H37" s="18">
+      <c r="M37" s="18">
         <v>6522126</v>
       </c>
     </row>
@@ -1175,6 +1775,21 @@
       <c r="H38" s="12">
         <v>0</v>
       </c>
+      <c r="I38" s="12">
+        <v>0</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0</v>
+      </c>
+      <c r="K38" s="12">
+        <v>0</v>
+      </c>
+      <c r="L38" s="12">
+        <v>0</v>
+      </c>
+      <c r="M38" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="B39" s="15" t="inlineStr">
@@ -1210,6 +1825,31 @@
           <t>-</t>
         </is>
       </c>
+      <c r="I39" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L39" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M39" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="B40" s="11" t="inlineStr">
@@ -1235,6 +1875,21 @@
       <c r="H40" s="12">
         <v>0</v>
       </c>
+      <c r="I40" s="12">
+        <v>0</v>
+      </c>
+      <c r="J40" s="12">
+        <v>0</v>
+      </c>
+      <c r="K40" s="12">
+        <v>0</v>
+      </c>
+      <c r="L40" s="12">
+        <v>0</v>
+      </c>
+      <c r="M40" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="B41" s="15" t="inlineStr">
@@ -1246,18 +1901,33 @@
         <v/>
       </c>
       <c r="D41" s="16">
+        <v>113671</v>
+      </c>
+      <c r="E41" s="16">
+        <v>123129</v>
+      </c>
+      <c r="F41" s="16">
+        <v>127961</v>
+      </c>
+      <c r="G41" s="16">
+        <v>121249</v>
+      </c>
+      <c r="H41" s="16">
+        <v>129249</v>
+      </c>
+      <c r="I41" s="16">
         <v>176224</v>
       </c>
-      <c r="E41" s="16">
+      <c r="J41" s="16">
         <v>177946</v>
       </c>
-      <c r="F41" s="16">
+      <c r="K41" s="16">
         <v>181100</v>
       </c>
-      <c r="G41" s="16">
+      <c r="L41" s="16">
         <v>278304</v>
       </c>
-      <c r="H41" s="16">
+      <c r="M41" s="16">
         <v>286887</v>
       </c>
     </row>
@@ -1271,18 +1941,33 @@
         <v/>
       </c>
       <c r="D42" s="20">
+        <v>113671</v>
+      </c>
+      <c r="E42" s="20">
+        <v>123129</v>
+      </c>
+      <c r="F42" s="20">
+        <v>127961</v>
+      </c>
+      <c r="G42" s="20">
+        <v>121249</v>
+      </c>
+      <c r="H42" s="20">
+        <v>129249</v>
+      </c>
+      <c r="I42" s="20">
         <v>176224</v>
       </c>
-      <c r="E42" s="20">
+      <c r="J42" s="20">
         <v>177946</v>
       </c>
-      <c r="F42" s="20">
+      <c r="K42" s="20">
         <v>181100</v>
       </c>
-      <c r="G42" s="20">
+      <c r="L42" s="20">
         <v>278304</v>
       </c>
-      <c r="H42" s="20">
+      <c r="M42" s="20">
         <v>286887</v>
       </c>
     </row>
@@ -1296,18 +1981,33 @@
         <v/>
       </c>
       <c r="D43" s="18">
+        <v>3401481</v>
+      </c>
+      <c r="E43" s="18">
+        <v>2434229</v>
+      </c>
+      <c r="F43" s="18">
+        <v>1630986</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1922101</v>
+      </c>
+      <c r="H43" s="18">
+        <v>4132245</v>
+      </c>
+      <c r="I43" s="18">
         <v>3947001</v>
       </c>
-      <c r="E43" s="18">
+      <c r="J43" s="18">
         <v>2854355</v>
       </c>
-      <c r="F43" s="18">
+      <c r="K43" s="18">
         <v>3245584</v>
       </c>
-      <c r="G43" s="18">
+      <c r="L43" s="18">
         <v>7513150</v>
       </c>
-      <c r="H43" s="18">
+      <c r="M43" s="18">
         <v>6809013</v>
       </c>
     </row>
@@ -1335,6 +2035,21 @@
       <c r="H44" s="14">
         <v/>
       </c>
+      <c r="I44" s="14">
+        <v/>
+      </c>
+      <c r="J44" s="14">
+        <v/>
+      </c>
+      <c r="K44" s="14">
+        <v/>
+      </c>
+      <c r="L44" s="14">
+        <v/>
+      </c>
+      <c r="M44" s="14">
+        <v/>
+      </c>
     </row>
     <row r="45">
       <c r="B45" s="15" t="inlineStr">
@@ -1360,6 +2075,21 @@
       <c r="H45" s="16">
         <v>1400000</v>
       </c>
+      <c r="I45" s="16">
+        <v>1400000</v>
+      </c>
+      <c r="J45" s="16">
+        <v>1400000</v>
+      </c>
+      <c r="K45" s="16">
+        <v>1400000</v>
+      </c>
+      <c r="L45" s="16">
+        <v>1400000</v>
+      </c>
+      <c r="M45" s="16">
+        <v>1400000</v>
+      </c>
     </row>
     <row r="46">
       <c r="B46" s="11" t="inlineStr">
@@ -1385,6 +2115,21 @@
       <c r="H46" s="12">
         <v>0</v>
       </c>
+      <c r="I46" s="12">
+        <v>0</v>
+      </c>
+      <c r="J46" s="12">
+        <v>0</v>
+      </c>
+      <c r="K46" s="12">
+        <v>0</v>
+      </c>
+      <c r="L46" s="12">
+        <v>0</v>
+      </c>
+      <c r="M46" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="B47" s="15" t="inlineStr">
@@ -1410,6 +2155,21 @@
       <c r="H47" s="16">
         <v>0</v>
       </c>
+      <c r="I47" s="16">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16">
+        <v>0</v>
+      </c>
+      <c r="K47" s="16">
+        <v>0</v>
+      </c>
+      <c r="L47" s="16">
+        <v>0</v>
+      </c>
+      <c r="M47" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="B48" s="11" t="inlineStr">
@@ -1421,18 +2181,33 @@
         <v/>
       </c>
       <c r="D48" s="12">
+        <v>0</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0</v>
+      </c>
+      <c r="F48" s="12">
+        <v>0</v>
+      </c>
+      <c r="G48" s="12">
+        <v>-84358</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0</v>
+      </c>
+      <c r="I48" s="12">
         <v>-48962</v>
       </c>
-      <c r="E48" s="12">
+      <c r="J48" s="12">
         <v>-76481</v>
       </c>
-      <c r="F48" s="12">
+      <c r="K48" s="12">
         <v>-59888</v>
       </c>
-      <c r="G48" s="12">
+      <c r="L48" s="12">
         <v>-59888</v>
       </c>
-      <c r="H48" s="12">
+      <c r="M48" s="12">
         <v>-24915</v>
       </c>
     </row>
@@ -1452,12 +2227,27 @@
         <v>0</v>
       </c>
       <c r="F49" s="16">
+        <v>0</v>
+      </c>
+      <c r="G49" s="16">
+        <v>0</v>
+      </c>
+      <c r="H49" s="16">
+        <v>0</v>
+      </c>
+      <c r="I49" s="16">
+        <v>0</v>
+      </c>
+      <c r="J49" s="16">
+        <v>0</v>
+      </c>
+      <c r="K49" s="16">
         <v>19131</v>
       </c>
-      <c r="G49" s="16">
+      <c r="L49" s="16">
         <v>19131</v>
       </c>
-      <c r="H49" s="16">
+      <c r="M49" s="16">
         <v>41635</v>
       </c>
     </row>
@@ -1471,13 +2261,13 @@
         <v/>
       </c>
       <c r="D50" s="12">
-        <v>140000</v>
+        <v>65000</v>
       </c>
       <c r="E50" s="12">
-        <v>140000</v>
+        <v>65000</v>
       </c>
       <c r="F50" s="12">
-        <v>140000</v>
+        <v>65000</v>
       </c>
       <c r="G50" s="12">
         <v>140000</v>
@@ -1485,6 +2275,21 @@
       <c r="H50" s="12">
         <v>140000</v>
       </c>
+      <c r="I50" s="12">
+        <v>140000</v>
+      </c>
+      <c r="J50" s="12">
+        <v>140000</v>
+      </c>
+      <c r="K50" s="12">
+        <v>140000</v>
+      </c>
+      <c r="L50" s="12">
+        <v>140000</v>
+      </c>
+      <c r="M50" s="12">
+        <v>140000</v>
+      </c>
     </row>
     <row r="51">
       <c r="B51" s="15" t="inlineStr">
@@ -1510,6 +2315,21 @@
       <c r="H51" s="16">
         <v>529</v>
       </c>
+      <c r="I51" s="16">
+        <v>529</v>
+      </c>
+      <c r="J51" s="16">
+        <v>529</v>
+      </c>
+      <c r="K51" s="16">
+        <v>529</v>
+      </c>
+      <c r="L51" s="16">
+        <v>529</v>
+      </c>
+      <c r="M51" s="16">
+        <v>529</v>
+      </c>
     </row>
     <row r="52">
       <c r="B52" s="11" t="inlineStr">
@@ -1545,6 +2365,31 @@
           <t>-</t>
         </is>
       </c>
+      <c r="I52" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J52" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K52" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L52" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M52" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="B53" s="15" t="inlineStr">
@@ -1570,6 +2415,21 @@
       <c r="H53" s="16">
         <v>0</v>
       </c>
+      <c r="I53" s="16">
+        <v>0</v>
+      </c>
+      <c r="J53" s="16">
+        <v>0</v>
+      </c>
+      <c r="K53" s="16">
+        <v>0</v>
+      </c>
+      <c r="L53" s="16">
+        <v>0</v>
+      </c>
+      <c r="M53" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="B54" s="11" t="inlineStr">
@@ -1605,6 +2465,31 @@
           <t>-</t>
         </is>
       </c>
+      <c r="I54" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J54" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K54" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L54" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M54" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="B55" s="15" t="inlineStr">
@@ -1630,6 +2515,21 @@
       <c r="H55" s="16">
         <v>0</v>
       </c>
+      <c r="I55" s="16">
+        <v>0</v>
+      </c>
+      <c r="J55" s="16">
+        <v>0</v>
+      </c>
+      <c r="K55" s="16">
+        <v>0</v>
+      </c>
+      <c r="L55" s="16">
+        <v>0</v>
+      </c>
+      <c r="M55" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="B56" s="11" t="inlineStr">
@@ -1641,18 +2541,33 @@
         <v/>
       </c>
       <c r="D56" s="12">
+        <v>382222</v>
+      </c>
+      <c r="E56" s="12">
+        <v>1853617</v>
+      </c>
+      <c r="F56" s="12">
+        <v>2878574</v>
+      </c>
+      <c r="G56" s="12">
+        <v>3242063</v>
+      </c>
+      <c r="H56" s="12">
+        <v>1541085</v>
+      </c>
+      <c r="I56" s="12">
         <v>2182973</v>
       </c>
-      <c r="E56" s="12">
+      <c r="J56" s="12">
         <v>4229005</v>
       </c>
-      <c r="F56" s="12">
+      <c r="K56" s="12">
         <v>5392925</v>
       </c>
-      <c r="G56" s="12">
+      <c r="L56" s="12">
         <v>2033488</v>
       </c>
-      <c r="H56" s="12">
+      <c r="M56" s="12">
         <v>3769617</v>
       </c>
     </row>
@@ -1666,18 +2581,33 @@
         <v/>
       </c>
       <c r="D57" s="18">
+        <v>1847751</v>
+      </c>
+      <c r="E57" s="18">
+        <v>3319146</v>
+      </c>
+      <c r="F57" s="18">
+        <v>4344103</v>
+      </c>
+      <c r="G57" s="18">
+        <v>4698234</v>
+      </c>
+      <c r="H57" s="18">
+        <v>3081614</v>
+      </c>
+      <c r="I57" s="18">
         <v>3674540</v>
       </c>
-      <c r="E57" s="18">
+      <c r="J57" s="18">
         <v>5693053</v>
       </c>
-      <c r="F57" s="18">
+      <c r="K57" s="18">
         <v>6892697</v>
       </c>
-      <c r="G57" s="18">
+      <c r="L57" s="18">
         <v>3533260</v>
       </c>
-      <c r="H57" s="18">
+      <c r="M57" s="18">
         <v>5326866</v>
       </c>
     </row>
@@ -1691,18 +2621,33 @@
         <v/>
       </c>
       <c r="D58" s="20">
+        <v>5249232</v>
+      </c>
+      <c r="E58" s="20">
+        <v>5753375</v>
+      </c>
+      <c r="F58" s="20">
+        <v>5975089</v>
+      </c>
+      <c r="G58" s="20">
+        <v>6620335</v>
+      </c>
+      <c r="H58" s="20">
+        <v>7213859</v>
+      </c>
+      <c r="I58" s="20">
         <v>7621541</v>
       </c>
-      <c r="E58" s="20">
+      <c r="J58" s="20">
         <v>8547408</v>
       </c>
-      <c r="F58" s="20">
+      <c r="K58" s="20">
         <v>10138281</v>
       </c>
-      <c r="G58" s="20">
+      <c r="L58" s="20">
         <v>11046410</v>
       </c>
-      <c r="H58" s="20">
+      <c r="M58" s="20">
         <v>12135879</v>
       </c>
     </row>
@@ -1726,6 +2671,21 @@
         <v/>
       </c>
       <c r="H59" s="2">
+        <v/>
+      </c>
+      <c r="I59" s="2">
+        <v/>
+      </c>
+      <c r="J59" s="2">
+        <v/>
+      </c>
+      <c r="K59" s="2">
+        <v/>
+      </c>
+      <c r="L59" s="2">
+        <v/>
+      </c>
+      <c r="M59" s="2">
         <v/>
       </c>
     </row>

--- a/database/industries/siman/sekhouz/balancesheet/quarterly.xlsx
+++ b/database/industries/siman/sekhouz/balancesheet/quarterly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1357679-4A04-4FB7-95B7-64CC04BBEADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سخوز-سیمان خوزستان</t>
@@ -37,21 +36,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
     <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -70,34 +54,19 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-04-30</t>
-  </si>
-  <si>
-    <t>1399-09-22 (3)</t>
-  </si>
-  <si>
-    <t>1399-10-30</t>
-  </si>
-  <si>
-    <t>1401-02-31 (11)</t>
-  </si>
-  <si>
-    <t>1400-04-29</t>
-  </si>
-  <si>
     <t>1400-09-17 (3)</t>
   </si>
   <si>
     <t>1400-10-30</t>
   </si>
   <si>
-    <t>1401-07-30 (5)</t>
+    <t>1401-09-14 (7)</t>
   </si>
   <si>
     <t>1401-05-01</t>
   </si>
   <si>
-    <t>1401-07-30</t>
+    <t>1401-09-14 (3)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -250,7 +219,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,7 +417,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -460,7 +429,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -507,23 +476,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -559,23 +511,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -727,23 +662,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -751,13 +684,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,13 +695,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -783,13 +706,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -797,13 +715,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -813,13 +726,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -829,13 +737,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -843,13 +746,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -869,59 +767,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -929,15 +797,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -945,199 +808,119 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>971912</v>
+        <v>1367508</v>
       </c>
       <c r="E12" s="15">
-        <v>882567</v>
+        <v>1609884</v>
       </c>
       <c r="F12" s="15">
-        <v>1087317</v>
+        <v>1664891</v>
       </c>
       <c r="G12" s="15">
-        <v>812517</v>
+        <v>1861205</v>
       </c>
       <c r="H12" s="15">
-        <v>556141</v>
-      </c>
-      <c r="I12" s="15">
-        <v>1367508</v>
-      </c>
-      <c r="J12" s="15">
-        <v>1609884</v>
-      </c>
-      <c r="K12" s="15">
-        <v>1664891</v>
-      </c>
-      <c r="L12" s="15">
-        <v>1861205</v>
-      </c>
-      <c r="M12" s="15">
         <v>2173673</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>47210</v>
+        <v>1067373</v>
       </c>
       <c r="E13" s="11">
-        <v>157210</v>
+        <v>1252173</v>
       </c>
       <c r="F13" s="11">
-        <v>307209</v>
+        <v>2067173</v>
       </c>
       <c r="G13" s="11">
-        <v>1367373</v>
+        <v>2867173</v>
       </c>
       <c r="H13" s="11">
-        <v>1517373</v>
-      </c>
-      <c r="I13" s="11">
-        <v>1067373</v>
-      </c>
-      <c r="J13" s="11">
-        <v>1252173</v>
-      </c>
-      <c r="K13" s="11">
-        <v>2067173</v>
-      </c>
-      <c r="L13" s="11">
         <v>2867173</v>
       </c>
-      <c r="M13" s="11">
-        <v>2867173</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>819389</v>
+        <v>1315883</v>
       </c>
       <c r="E14" s="15">
-        <v>1489523</v>
+        <v>1158420</v>
       </c>
       <c r="F14" s="15">
-        <v>861687</v>
+        <v>1299988</v>
       </c>
       <c r="G14" s="15">
-        <v>1238474</v>
+        <v>995205</v>
       </c>
       <c r="H14" s="15">
-        <v>1199429</v>
-      </c>
-      <c r="I14" s="15">
-        <v>1315883</v>
-      </c>
-      <c r="J14" s="15">
-        <v>1158420</v>
-      </c>
-      <c r="K14" s="15">
-        <v>1299988</v>
-      </c>
-      <c r="L14" s="15">
-        <v>995205</v>
-      </c>
-      <c r="M14" s="15">
-        <v>1867379</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1848900</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>895125</v>
+        <v>1240444</v>
       </c>
       <c r="E15" s="11">
-        <v>789872</v>
+        <v>1812740</v>
       </c>
       <c r="F15" s="11">
-        <v>872315</v>
+        <v>2041796</v>
       </c>
       <c r="G15" s="11">
-        <v>1009729</v>
+        <v>2305340</v>
       </c>
       <c r="H15" s="11">
-        <v>1199729</v>
-      </c>
-      <c r="I15" s="11">
-        <v>1240444</v>
-      </c>
-      <c r="J15" s="11">
-        <v>1812740</v>
-      </c>
-      <c r="K15" s="11">
-        <v>2041796</v>
-      </c>
-      <c r="L15" s="11">
-        <v>2305340</v>
-      </c>
-      <c r="M15" s="11">
-        <v>2517279</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>2506969</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>613327</v>
+        <v>579776</v>
       </c>
       <c r="E16" s="15">
-        <v>513964</v>
+        <v>766777</v>
       </c>
       <c r="F16" s="15">
-        <v>889331</v>
+        <v>751845</v>
       </c>
       <c r="G16" s="15">
-        <v>395222</v>
+        <v>691544</v>
       </c>
       <c r="H16" s="15">
-        <v>823314</v>
-      </c>
-      <c r="I16" s="15">
-        <v>579776</v>
-      </c>
-      <c r="J16" s="15">
-        <v>766777</v>
-      </c>
-      <c r="K16" s="15">
-        <v>751845</v>
-      </c>
-      <c r="L16" s="15">
-        <v>691544</v>
-      </c>
-      <c r="M16" s="15">
         <v>345123</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>3154</v>
+        <v>0</v>
       </c>
       <c r="E17" s="11">
         <v>0</v>
@@ -1151,133 +934,73 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>3350117</v>
+        <v>5570984</v>
       </c>
       <c r="E18" s="17">
-        <v>3833136</v>
+        <v>6599994</v>
       </c>
       <c r="F18" s="17">
-        <v>4017859</v>
+        <v>7825693</v>
       </c>
       <c r="G18" s="17">
-        <v>4823315</v>
+        <v>8720467</v>
       </c>
       <c r="H18" s="17">
-        <v>5295986</v>
-      </c>
-      <c r="I18" s="17">
-        <v>5570984</v>
-      </c>
-      <c r="J18" s="17">
-        <v>6599994</v>
-      </c>
-      <c r="K18" s="17">
-        <v>7825693</v>
-      </c>
-      <c r="L18" s="17">
-        <v>8720467</v>
-      </c>
-      <c r="M18" s="17">
-        <v>9770627</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>9741838</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>4985</v>
+        <v>12455</v>
       </c>
       <c r="E19" s="11">
-        <v>7717</v>
+        <v>11273</v>
       </c>
       <c r="F19" s="11">
-        <v>5996</v>
+        <v>11778</v>
       </c>
       <c r="G19" s="11">
-        <v>10064</v>
+        <v>12444</v>
       </c>
       <c r="H19" s="11">
-        <v>12132</v>
-      </c>
-      <c r="I19" s="11">
-        <v>12455</v>
-      </c>
-      <c r="J19" s="11">
-        <v>11273</v>
-      </c>
-      <c r="K19" s="11">
-        <v>11778</v>
-      </c>
-      <c r="L19" s="11">
-        <v>12444</v>
-      </c>
-      <c r="M19" s="11">
         <v>16094</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>815984</v>
+        <v>812924</v>
       </c>
       <c r="E20" s="15">
-        <v>831551</v>
+        <v>722385</v>
       </c>
       <c r="F20" s="15">
-        <v>766722</v>
+        <v>819464</v>
       </c>
       <c r="G20" s="15">
-        <v>725758</v>
+        <v>819464</v>
       </c>
       <c r="H20" s="15">
-        <v>835948</v>
-      </c>
-      <c r="I20" s="15">
-        <v>812924</v>
-      </c>
-      <c r="J20" s="15">
-        <v>722385</v>
-      </c>
-      <c r="K20" s="15">
-        <v>819464</v>
-      </c>
-      <c r="L20" s="15">
-        <v>819464</v>
-      </c>
-      <c r="M20" s="15">
         <v>877496</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1295,241 +1018,136 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>997856</v>
+        <v>1095977</v>
       </c>
       <c r="E22" s="15">
-        <v>970228</v>
+        <v>1083808</v>
       </c>
       <c r="F22" s="15">
-        <v>1034833</v>
+        <v>1350535</v>
       </c>
       <c r="G22" s="15">
-        <v>934792</v>
+        <v>1361432</v>
       </c>
       <c r="H22" s="15">
-        <v>943387</v>
-      </c>
-      <c r="I22" s="15">
-        <v>1095977</v>
-      </c>
-      <c r="J22" s="15">
-        <v>1083808</v>
-      </c>
-      <c r="K22" s="15">
-        <v>1350535</v>
-      </c>
-      <c r="L22" s="15">
-        <v>1361432</v>
-      </c>
-      <c r="M22" s="15">
         <v>1349065</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>66760</v>
+        <v>93030</v>
       </c>
       <c r="E23" s="11">
-        <v>66760</v>
+        <v>93030</v>
       </c>
       <c r="F23" s="11">
-        <v>100012</v>
+        <v>93030</v>
       </c>
       <c r="G23" s="11">
-        <v>93030</v>
+        <v>93532</v>
       </c>
       <c r="H23" s="11">
         <v>93030</v>
       </c>
-      <c r="I23" s="11">
-        <v>93030</v>
-      </c>
-      <c r="J23" s="11">
-        <v>93030</v>
-      </c>
-      <c r="K23" s="11">
-        <v>93030</v>
-      </c>
-      <c r="L23" s="11">
-        <v>93532</v>
-      </c>
-      <c r="M23" s="11">
-        <v>93030</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>13530</v>
+        <v>36171</v>
       </c>
       <c r="E25" s="11">
-        <v>43983</v>
+        <v>36918</v>
       </c>
       <c r="F25" s="11">
-        <v>49667</v>
+        <v>37781</v>
       </c>
       <c r="G25" s="11">
-        <v>33376</v>
+        <v>39071</v>
       </c>
       <c r="H25" s="11">
-        <v>33376</v>
-      </c>
-      <c r="I25" s="11">
-        <v>36171</v>
-      </c>
-      <c r="J25" s="11">
-        <v>36918</v>
-      </c>
-      <c r="K25" s="11">
-        <v>37781</v>
-      </c>
-      <c r="L25" s="11">
-        <v>39071</v>
-      </c>
-      <c r="M25" s="11">
         <v>29567</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>1899115</v>
+        <v>2050557</v>
       </c>
       <c r="E26" s="17">
-        <v>1920239</v>
+        <v>1947414</v>
       </c>
       <c r="F26" s="17">
-        <v>1957230</v>
+        <v>2312588</v>
       </c>
       <c r="G26" s="17">
-        <v>1797020</v>
+        <v>2325943</v>
       </c>
       <c r="H26" s="17">
-        <v>1917873</v>
-      </c>
-      <c r="I26" s="17">
-        <v>2050557</v>
-      </c>
-      <c r="J26" s="17">
-        <v>1947414</v>
-      </c>
-      <c r="K26" s="17">
-        <v>2312588</v>
-      </c>
-      <c r="L26" s="17">
-        <v>2325943</v>
-      </c>
-      <c r="M26" s="17">
         <v>2365252</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>5249232</v>
+        <v>7621541</v>
       </c>
       <c r="E27" s="19">
-        <v>5753375</v>
+        <v>8547408</v>
       </c>
       <c r="F27" s="19">
-        <v>5975089</v>
+        <v>10138281</v>
       </c>
       <c r="G27" s="19">
-        <v>6620335</v>
+        <v>11046410</v>
       </c>
       <c r="H27" s="19">
-        <v>7213859</v>
-      </c>
-      <c r="I27" s="19">
-        <v>7621541</v>
-      </c>
-      <c r="J27" s="19">
-        <v>8547408</v>
-      </c>
-      <c r="K27" s="19">
-        <v>10138281</v>
-      </c>
-      <c r="L27" s="19">
-        <v>11046410</v>
-      </c>
-      <c r="M27" s="19">
-        <v>12135879</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>12107090</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1537,231 +1155,136 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>1033942</v>
+        <v>1348850</v>
       </c>
       <c r="E29" s="15">
-        <v>776884</v>
+        <v>475513</v>
       </c>
       <c r="F29" s="15">
-        <v>612886</v>
+        <v>1571666</v>
       </c>
       <c r="G29" s="15">
-        <v>820268</v>
+        <v>1376887</v>
       </c>
       <c r="H29" s="15">
-        <v>954300</v>
-      </c>
-      <c r="I29" s="15">
-        <v>1348850</v>
-      </c>
-      <c r="J29" s="15">
-        <v>475513</v>
-      </c>
-      <c r="K29" s="15">
-        <v>1571666</v>
-      </c>
-      <c r="L29" s="15">
-        <v>1376887</v>
-      </c>
-      <c r="M29" s="15">
-        <v>3120853</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3094064</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>265970</v>
+        <v>706472</v>
       </c>
       <c r="E31" s="15">
-        <v>187323</v>
+        <v>997700</v>
       </c>
       <c r="F31" s="15">
-        <v>509664</v>
+        <v>1007990</v>
       </c>
       <c r="G31" s="15">
-        <v>591696</v>
+        <v>535412</v>
       </c>
       <c r="H31" s="15">
-        <v>145482</v>
-      </c>
-      <c r="I31" s="15">
-        <v>706472</v>
-      </c>
-      <c r="J31" s="15">
-        <v>997700</v>
-      </c>
-      <c r="K31" s="15">
-        <v>1007990</v>
-      </c>
-      <c r="L31" s="15">
-        <v>535412</v>
-      </c>
-      <c r="M31" s="15">
         <v>763201</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>0</v>
+        <v>317376</v>
       </c>
       <c r="E32" s="11">
-        <v>47594</v>
+        <v>747424</v>
       </c>
       <c r="F32" s="11">
-        <v>0</v>
+        <v>257899</v>
       </c>
       <c r="G32" s="11">
-        <v>194106</v>
+        <v>302873</v>
       </c>
       <c r="H32" s="11">
-        <v>237480</v>
-      </c>
-      <c r="I32" s="11">
-        <v>317376</v>
-      </c>
-      <c r="J32" s="11">
-        <v>747424</v>
-      </c>
-      <c r="K32" s="11">
-        <v>257899</v>
-      </c>
-      <c r="L32" s="11">
-        <v>302873</v>
-      </c>
-      <c r="M32" s="11">
         <v>307329</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>1445997</v>
+        <v>1398079</v>
       </c>
       <c r="E33" s="15">
-        <v>1015014</v>
+        <v>455772</v>
       </c>
       <c r="F33" s="15">
-        <v>204520</v>
+        <v>226929</v>
       </c>
       <c r="G33" s="15">
-        <v>107917</v>
+        <v>5019674</v>
       </c>
       <c r="H33" s="15">
-        <v>2646779</v>
-      </c>
-      <c r="I33" s="15">
-        <v>1398079</v>
-      </c>
-      <c r="J33" s="15">
-        <v>455772</v>
-      </c>
-      <c r="K33" s="15">
-        <v>226929</v>
-      </c>
-      <c r="L33" s="15">
-        <v>5019674</v>
-      </c>
-      <c r="M33" s="15">
         <v>2330743</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>541901</v>
+        <v>0</v>
       </c>
       <c r="E34" s="11">
-        <v>284285</v>
+        <v>0</v>
       </c>
       <c r="F34" s="11">
-        <v>175955</v>
+        <v>0</v>
       </c>
       <c r="G34" s="11">
-        <v>86865</v>
+        <v>0</v>
       </c>
       <c r="H34" s="11">
-        <v>18955</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0</v>
-      </c>
-      <c r="J34" s="11">
-        <v>0</v>
-      </c>
-      <c r="K34" s="11">
-        <v>0</v>
-      </c>
-      <c r="L34" s="11">
-        <v>0</v>
-      </c>
-      <c r="M34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1779,25 +1302,10 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-      <c r="I35" s="15">
-        <v>0</v>
-      </c>
-      <c r="J35" s="15">
-        <v>0</v>
-      </c>
-      <c r="K35" s="15">
-        <v>0</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1815,61 +1323,31 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>0</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0</v>
-      </c>
-      <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>3287810</v>
+        <v>3770777</v>
       </c>
       <c r="E37" s="17">
-        <v>2311100</v>
+        <v>2676409</v>
       </c>
       <c r="F37" s="17">
-        <v>1503025</v>
+        <v>3064484</v>
       </c>
       <c r="G37" s="17">
-        <v>1800852</v>
+        <v>7234846</v>
       </c>
       <c r="H37" s="17">
-        <v>4002996</v>
-      </c>
-      <c r="I37" s="17">
-        <v>3770777</v>
-      </c>
-      <c r="J37" s="17">
-        <v>2676409</v>
-      </c>
-      <c r="K37" s="17">
-        <v>3064484</v>
-      </c>
-      <c r="L37" s="17">
-        <v>7234846</v>
-      </c>
-      <c r="M37" s="17">
-        <v>6522126</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+        <v>6495337</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1887,61 +1365,31 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-      <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
-        <v>0</v>
-      </c>
-      <c r="L38" s="11">
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
@@ -1959,133 +1407,73 @@
       <c r="H40" s="11">
         <v>0</v>
       </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-      <c r="J40" s="11">
-        <v>0</v>
-      </c>
-      <c r="K40" s="11">
-        <v>0</v>
-      </c>
-      <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>113671</v>
+        <v>176224</v>
       </c>
       <c r="E41" s="15">
-        <v>123129</v>
+        <v>177946</v>
       </c>
       <c r="F41" s="15">
-        <v>127961</v>
+        <v>181100</v>
       </c>
       <c r="G41" s="15">
-        <v>121249</v>
+        <v>278304</v>
       </c>
       <c r="H41" s="15">
-        <v>129249</v>
-      </c>
-      <c r="I41" s="15">
-        <v>176224</v>
-      </c>
-      <c r="J41" s="15">
-        <v>177946</v>
-      </c>
-      <c r="K41" s="15">
-        <v>181100</v>
-      </c>
-      <c r="L41" s="15">
-        <v>278304</v>
-      </c>
-      <c r="M41" s="15">
         <v>286887</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>113671</v>
+        <v>176224</v>
       </c>
       <c r="E42" s="19">
-        <v>123129</v>
+        <v>177946</v>
       </c>
       <c r="F42" s="19">
-        <v>127961</v>
+        <v>181100</v>
       </c>
       <c r="G42" s="19">
-        <v>121249</v>
+        <v>278304</v>
       </c>
       <c r="H42" s="19">
-        <v>129249</v>
-      </c>
-      <c r="I42" s="19">
-        <v>176224</v>
-      </c>
-      <c r="J42" s="19">
-        <v>177946</v>
-      </c>
-      <c r="K42" s="19">
-        <v>181100</v>
-      </c>
-      <c r="L42" s="19">
-        <v>278304</v>
-      </c>
-      <c r="M42" s="19">
         <v>286887</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>3401481</v>
+        <v>3947001</v>
       </c>
       <c r="E43" s="17">
-        <v>2434229</v>
+        <v>2854355</v>
       </c>
       <c r="F43" s="17">
-        <v>1630986</v>
+        <v>3245584</v>
       </c>
       <c r="G43" s="17">
-        <v>1922101</v>
+        <v>7513150</v>
       </c>
       <c r="H43" s="17">
-        <v>4132245</v>
-      </c>
-      <c r="I43" s="17">
-        <v>3947001</v>
-      </c>
-      <c r="J43" s="17">
-        <v>2854355</v>
-      </c>
-      <c r="K43" s="17">
-        <v>3245584</v>
-      </c>
-      <c r="L43" s="17">
-        <v>7513150</v>
-      </c>
-      <c r="M43" s="17">
-        <v>6809013</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+        <v>6782224</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2093,15 +1481,10 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -2119,25 +1502,10 @@
       <c r="H45" s="15">
         <v>1400000</v>
       </c>
-      <c r="I45" s="15">
-        <v>1400000</v>
-      </c>
-      <c r="J45" s="15">
-        <v>1400000</v>
-      </c>
-      <c r="K45" s="15">
-        <v>1400000</v>
-      </c>
-      <c r="L45" s="15">
-        <v>1400000</v>
-      </c>
-      <c r="M45" s="15">
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2155,25 +1523,10 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2191,61 +1544,31 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
-        <v>0</v>
+        <v>-48962</v>
       </c>
       <c r="E48" s="11">
-        <v>0</v>
+        <v>-76481</v>
       </c>
       <c r="F48" s="11">
-        <v>0</v>
+        <v>-59888</v>
       </c>
       <c r="G48" s="11">
-        <v>-84358</v>
+        <v>-59888</v>
       </c>
       <c r="H48" s="11">
-        <v>0</v>
-      </c>
-      <c r="I48" s="11">
-        <v>-48962</v>
-      </c>
-      <c r="J48" s="11">
-        <v>-76481</v>
-      </c>
-      <c r="K48" s="11">
-        <v>-59888</v>
-      </c>
-      <c r="L48" s="11">
-        <v>-59888</v>
-      </c>
-      <c r="M48" s="11">
         <v>-24915</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -2255,43 +1578,28 @@
         <v>0</v>
       </c>
       <c r="F49" s="15">
-        <v>0</v>
+        <v>19131</v>
       </c>
       <c r="G49" s="15">
-        <v>0</v>
+        <v>19131</v>
       </c>
       <c r="H49" s="15">
-        <v>0</v>
-      </c>
-      <c r="I49" s="15">
-        <v>0</v>
-      </c>
-      <c r="J49" s="15">
-        <v>0</v>
-      </c>
-      <c r="K49" s="15">
-        <v>19131</v>
-      </c>
-      <c r="L49" s="15">
-        <v>19131</v>
-      </c>
-      <c r="M49" s="15">
         <v>41635</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>65000</v>
+        <v>140000</v>
       </c>
       <c r="E50" s="11">
-        <v>65000</v>
+        <v>140000</v>
       </c>
       <c r="F50" s="11">
-        <v>65000</v>
+        <v>140000</v>
       </c>
       <c r="G50" s="11">
         <v>140000</v>
@@ -2299,25 +1607,10 @@
       <c r="H50" s="11">
         <v>140000</v>
       </c>
-      <c r="I50" s="11">
-        <v>140000</v>
-      </c>
-      <c r="J50" s="11">
-        <v>140000</v>
-      </c>
-      <c r="K50" s="11">
-        <v>140000</v>
-      </c>
-      <c r="L50" s="11">
-        <v>140000</v>
-      </c>
-      <c r="M50" s="11">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -2335,61 +1628,31 @@
       <c r="H51" s="15">
         <v>529</v>
       </c>
-      <c r="I51" s="15">
-        <v>529</v>
-      </c>
-      <c r="J51" s="15">
-        <v>529</v>
-      </c>
-      <c r="K51" s="15">
-        <v>529</v>
-      </c>
-      <c r="L51" s="15">
-        <v>529</v>
-      </c>
-      <c r="M51" s="15">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -2407,61 +1670,31 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-      <c r="I53" s="15">
-        <v>0</v>
-      </c>
-      <c r="J53" s="15">
-        <v>0</v>
-      </c>
-      <c r="K53" s="15">
-        <v>0</v>
-      </c>
-      <c r="L53" s="15">
-        <v>0</v>
-      </c>
-      <c r="M53" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -2479,131 +1712,71 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-      <c r="I55" s="15">
-        <v>0</v>
-      </c>
-      <c r="J55" s="15">
-        <v>0</v>
-      </c>
-      <c r="K55" s="15">
-        <v>0</v>
-      </c>
-      <c r="L55" s="15">
-        <v>0</v>
-      </c>
-      <c r="M55" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>382222</v>
+        <v>2182973</v>
       </c>
       <c r="E56" s="11">
-        <v>1853617</v>
+        <v>4229005</v>
       </c>
       <c r="F56" s="11">
-        <v>2878574</v>
+        <v>5392925</v>
       </c>
       <c r="G56" s="11">
-        <v>3242063</v>
+        <v>2033488</v>
       </c>
       <c r="H56" s="11">
-        <v>1541085</v>
-      </c>
-      <c r="I56" s="11">
-        <v>2182973</v>
-      </c>
-      <c r="J56" s="11">
-        <v>4229005</v>
-      </c>
-      <c r="K56" s="11">
-        <v>5392925</v>
-      </c>
-      <c r="L56" s="11">
-        <v>2033488</v>
-      </c>
-      <c r="M56" s="11">
-        <v>3769617</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3767617</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>1847751</v>
+        <v>3674540</v>
       </c>
       <c r="E57" s="17">
-        <v>3319146</v>
+        <v>5693053</v>
       </c>
       <c r="F57" s="17">
-        <v>4344103</v>
+        <v>6892697</v>
       </c>
       <c r="G57" s="17">
-        <v>4698234</v>
+        <v>3533260</v>
       </c>
       <c r="H57" s="17">
-        <v>3081614</v>
-      </c>
-      <c r="I57" s="17">
-        <v>3674540</v>
-      </c>
-      <c r="J57" s="17">
-        <v>5693053</v>
-      </c>
-      <c r="K57" s="17">
-        <v>6892697</v>
-      </c>
-      <c r="L57" s="17">
-        <v>3533260</v>
-      </c>
-      <c r="M57" s="17">
-        <v>5326866</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+        <v>5324866</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>5249232</v>
+        <v>7621541</v>
       </c>
       <c r="E58" s="19">
-        <v>5753375</v>
+        <v>8547408</v>
       </c>
       <c r="F58" s="19">
-        <v>5975089</v>
+        <v>10138281</v>
       </c>
       <c r="G58" s="19">
-        <v>6620335</v>
+        <v>11046410</v>
       </c>
       <c r="H58" s="19">
-        <v>7213859</v>
-      </c>
-      <c r="I58" s="19">
-        <v>7621541</v>
-      </c>
-      <c r="J58" s="19">
-        <v>8547408</v>
-      </c>
-      <c r="K58" s="19">
-        <v>10138281</v>
-      </c>
-      <c r="L58" s="19">
-        <v>11046410</v>
-      </c>
-      <c r="M58" s="19">
-        <v>12135879</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+        <v>12107090</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2611,11 +1784,6 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/sekhouz/balancesheet/quarterly.xlsx
+++ b/database/industries/siman/sekhouz/balancesheet/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E874F88E-7678-4F6F-9AF2-BD38FEC91AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,22 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-09-17 (3)</t>
-  </si>
-  <si>
     <t>1400-10-30</t>
   </si>
   <si>
-    <t>1401-09-14 (7)</t>
+    <t>1401-10-28 (8)</t>
   </si>
   <si>
     <t>1401-05-01</t>
   </si>
   <si>
     <t>1401-09-14 (3)</t>
+  </si>
+  <si>
+    <t>1401-10-28</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -219,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,7 +418,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -429,7 +430,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -476,6 +477,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -511,6 +529,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,21 +697,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="8" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -685,7 +720,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,7 +731,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -707,7 +742,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -716,7 +751,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -727,7 +762,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -738,7 +773,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -747,7 +782,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -768,7 +803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -789,7 +824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -798,7 +833,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -809,112 +844,112 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>1367508</v>
+        <v>1609884</v>
       </c>
       <c r="E12" s="15">
-        <v>1609884</v>
+        <v>1664891</v>
       </c>
       <c r="F12" s="15">
-        <v>1664891</v>
+        <v>1861205</v>
       </c>
       <c r="G12" s="15">
-        <v>1861205</v>
+        <v>2173673</v>
       </c>
       <c r="H12" s="15">
-        <v>2173673</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2806360</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>1067373</v>
+        <v>1252173</v>
       </c>
       <c r="E13" s="11">
-        <v>1252173</v>
+        <v>2067173</v>
       </c>
       <c r="F13" s="11">
-        <v>2067173</v>
+        <v>2867173</v>
       </c>
       <c r="G13" s="11">
         <v>2867173</v>
       </c>
       <c r="H13" s="11">
-        <v>2867173</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3067173</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>1315883</v>
+        <v>1158420</v>
       </c>
       <c r="E14" s="15">
-        <v>1158420</v>
+        <v>1299988</v>
       </c>
       <c r="F14" s="15">
-        <v>1299988</v>
+        <v>995205</v>
       </c>
       <c r="G14" s="15">
-        <v>995205</v>
+        <v>1848900</v>
       </c>
       <c r="H14" s="15">
-        <v>1848900</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1284074</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>1240444</v>
+        <v>1812740</v>
       </c>
       <c r="E15" s="11">
-        <v>1812740</v>
+        <v>2041796</v>
       </c>
       <c r="F15" s="11">
-        <v>2041796</v>
+        <v>2305340</v>
       </c>
       <c r="G15" s="11">
-        <v>2305340</v>
+        <v>2506969</v>
       </c>
       <c r="H15" s="11">
-        <v>2506969</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2545648</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>579776</v>
+        <v>766777</v>
       </c>
       <c r="E16" s="15">
-        <v>766777</v>
+        <v>751845</v>
       </c>
       <c r="F16" s="15">
-        <v>751845</v>
+        <v>691544</v>
       </c>
       <c r="G16" s="15">
-        <v>691544</v>
+        <v>345123</v>
       </c>
       <c r="H16" s="15">
-        <v>345123</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>399061</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -935,70 +970,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>5570984</v>
+        <v>6599994</v>
       </c>
       <c r="E18" s="17">
-        <v>6599994</v>
+        <v>7825693</v>
       </c>
       <c r="F18" s="17">
-        <v>7825693</v>
+        <v>8720467</v>
       </c>
       <c r="G18" s="17">
-        <v>8720467</v>
+        <v>9741838</v>
       </c>
       <c r="H18" s="17">
-        <v>9741838</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10102316</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>12455</v>
+        <v>11273</v>
       </c>
       <c r="E19" s="11">
-        <v>11273</v>
+        <v>11778</v>
       </c>
       <c r="F19" s="11">
-        <v>11778</v>
+        <v>12444</v>
       </c>
       <c r="G19" s="11">
-        <v>12444</v>
+        <v>16094</v>
       </c>
       <c r="H19" s="11">
-        <v>16094</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>17161</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>812924</v>
+        <v>722385</v>
       </c>
       <c r="E20" s="15">
-        <v>722385</v>
+        <v>819464</v>
       </c>
       <c r="F20" s="15">
         <v>819464</v>
       </c>
       <c r="G20" s="15">
-        <v>819464</v>
+        <v>877496</v>
       </c>
       <c r="H20" s="15">
         <v>877496</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1019,28 +1054,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>1095977</v>
+        <v>1083808</v>
       </c>
       <c r="E22" s="15">
-        <v>1083808</v>
+        <v>1350535</v>
       </c>
       <c r="F22" s="15">
-        <v>1350535</v>
+        <v>1361432</v>
       </c>
       <c r="G22" s="15">
-        <v>1361432</v>
+        <v>1349065</v>
       </c>
       <c r="H22" s="15">
-        <v>1349065</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1351788</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
@@ -1052,16 +1087,16 @@
         <v>93030</v>
       </c>
       <c r="F23" s="11">
+        <v>93532</v>
+      </c>
+      <c r="G23" s="11">
         <v>93030</v>
-      </c>
-      <c r="G23" s="11">
-        <v>93532</v>
       </c>
       <c r="H23" s="11">
         <v>93030</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1082,70 +1117,70 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>36171</v>
+        <v>36918</v>
       </c>
       <c r="E25" s="11">
-        <v>36918</v>
+        <v>37781</v>
       </c>
       <c r="F25" s="11">
-        <v>37781</v>
+        <v>39071</v>
       </c>
       <c r="G25" s="11">
-        <v>39071</v>
+        <v>29567</v>
       </c>
       <c r="H25" s="11">
-        <v>29567</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>29403</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>2050557</v>
+        <v>1947414</v>
       </c>
       <c r="E26" s="17">
-        <v>1947414</v>
+        <v>2312588</v>
       </c>
       <c r="F26" s="17">
-        <v>2312588</v>
+        <v>2325943</v>
       </c>
       <c r="G26" s="17">
-        <v>2325943</v>
+        <v>2365252</v>
       </c>
       <c r="H26" s="17">
-        <v>2365252</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2368878</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>7621541</v>
+        <v>8547408</v>
       </c>
       <c r="E27" s="19">
-        <v>8547408</v>
+        <v>10138281</v>
       </c>
       <c r="F27" s="19">
-        <v>10138281</v>
+        <v>11046410</v>
       </c>
       <c r="G27" s="19">
-        <v>11046410</v>
+        <v>12107090</v>
       </c>
       <c r="H27" s="19">
-        <v>12107090</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>12471194</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>34</v>
       </c>
@@ -1156,28 +1191,28 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>1348850</v>
+        <v>475513</v>
       </c>
       <c r="E29" s="15">
-        <v>475513</v>
+        <v>1571666</v>
       </c>
       <c r="F29" s="15">
-        <v>1571666</v>
+        <v>1376887</v>
       </c>
       <c r="G29" s="15">
-        <v>1376887</v>
+        <v>3094064</v>
       </c>
       <c r="H29" s="15">
-        <v>3094064</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1994988</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>36</v>
       </c>
@@ -1198,70 +1233,70 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>706472</v>
+        <v>997700</v>
       </c>
       <c r="E31" s="15">
-        <v>997700</v>
+        <v>1007990</v>
       </c>
       <c r="F31" s="15">
-        <v>1007990</v>
+        <v>535412</v>
       </c>
       <c r="G31" s="15">
-        <v>535412</v>
+        <v>763201</v>
       </c>
       <c r="H31" s="15">
-        <v>763201</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>937401</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>317376</v>
+        <v>747424</v>
       </c>
       <c r="E32" s="11">
-        <v>747424</v>
+        <v>257899</v>
       </c>
       <c r="F32" s="11">
-        <v>257899</v>
+        <v>302873</v>
       </c>
       <c r="G32" s="11">
-        <v>302873</v>
+        <v>307329</v>
       </c>
       <c r="H32" s="11">
-        <v>307329</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>488465</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>1398079</v>
+        <v>455772</v>
       </c>
       <c r="E33" s="15">
-        <v>455772</v>
+        <v>226929</v>
       </c>
       <c r="F33" s="15">
-        <v>226929</v>
+        <v>5019674</v>
       </c>
       <c r="G33" s="15">
-        <v>5019674</v>
+        <v>2330743</v>
       </c>
       <c r="H33" s="15">
-        <v>2330743</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>250170</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
@@ -1279,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="H34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
@@ -1303,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
@@ -1324,28 +1359,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>3770777</v>
+        <v>2676409</v>
       </c>
       <c r="E37" s="17">
-        <v>2676409</v>
+        <v>3064484</v>
       </c>
       <c r="F37" s="17">
-        <v>3064484</v>
+        <v>7234846</v>
       </c>
       <c r="G37" s="17">
-        <v>7234846</v>
+        <v>6495337</v>
       </c>
       <c r="H37" s="17">
-        <v>6495337</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4271024</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1366,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
@@ -1387,7 +1422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1408,70 +1443,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>176224</v>
+        <v>177946</v>
       </c>
       <c r="E41" s="15">
-        <v>177946</v>
+        <v>181100</v>
       </c>
       <c r="F41" s="15">
-        <v>181100</v>
+        <v>278304</v>
       </c>
       <c r="G41" s="15">
-        <v>278304</v>
+        <v>286887</v>
       </c>
       <c r="H41" s="15">
-        <v>286887</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>301374</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>176224</v>
+        <v>177946</v>
       </c>
       <c r="E42" s="19">
-        <v>177946</v>
+        <v>181100</v>
       </c>
       <c r="F42" s="19">
-        <v>181100</v>
+        <v>278304</v>
       </c>
       <c r="G42" s="19">
-        <v>278304</v>
+        <v>286887</v>
       </c>
       <c r="H42" s="19">
-        <v>286887</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>301374</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>3947001</v>
+        <v>2854355</v>
       </c>
       <c r="E43" s="17">
-        <v>2854355</v>
+        <v>3245584</v>
       </c>
       <c r="F43" s="17">
-        <v>3245584</v>
+        <v>7513150</v>
       </c>
       <c r="G43" s="17">
-        <v>7513150</v>
+        <v>6782224</v>
       </c>
       <c r="H43" s="17">
-        <v>6782224</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4572398</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>50</v>
       </c>
@@ -1482,7 +1517,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
@@ -1503,7 +1538,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1524,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
@@ -1545,28 +1580,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
-        <v>-48962</v>
+        <v>-76481</v>
       </c>
       <c r="E48" s="11">
-        <v>-76481</v>
+        <v>-59888</v>
       </c>
       <c r="F48" s="11">
         <v>-59888</v>
       </c>
       <c r="G48" s="11">
-        <v>-59888</v>
+        <v>-24915</v>
       </c>
       <c r="H48" s="11">
         <v>-24915</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
@@ -1575,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="E49" s="15">
-        <v>0</v>
+        <v>19131</v>
       </c>
       <c r="F49" s="15">
         <v>19131</v>
       </c>
       <c r="G49" s="15">
-        <v>19131</v>
+        <v>41635</v>
       </c>
       <c r="H49" s="15">
         <v>41635</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -1608,7 +1643,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>57</v>
       </c>
@@ -1629,7 +1664,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
@@ -1650,7 +1685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
@@ -1671,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
@@ -1692,7 +1727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
@@ -1713,70 +1748,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>2182973</v>
+        <v>4229005</v>
       </c>
       <c r="E56" s="11">
-        <v>4229005</v>
+        <v>5392925</v>
       </c>
       <c r="F56" s="11">
-        <v>5392925</v>
+        <v>2033488</v>
       </c>
       <c r="G56" s="11">
-        <v>2033488</v>
+        <v>3767617</v>
       </c>
       <c r="H56" s="11">
-        <v>3767617</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6341547</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>3674540</v>
+        <v>5693053</v>
       </c>
       <c r="E57" s="17">
-        <v>5693053</v>
+        <v>6892697</v>
       </c>
       <c r="F57" s="17">
-        <v>6892697</v>
+        <v>3533260</v>
       </c>
       <c r="G57" s="17">
-        <v>3533260</v>
+        <v>5324866</v>
       </c>
       <c r="H57" s="17">
-        <v>5324866</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7898796</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>7621541</v>
+        <v>8547408</v>
       </c>
       <c r="E58" s="19">
-        <v>8547408</v>
+        <v>10138281</v>
       </c>
       <c r="F58" s="19">
-        <v>10138281</v>
+        <v>11046410</v>
       </c>
       <c r="G58" s="19">
-        <v>11046410</v>
+        <v>12107090</v>
       </c>
       <c r="H58" s="19">
-        <v>12107090</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+        <v>12471194</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>

--- a/database/industries/siman/sekhouz/balancesheet/quarterly.xlsx
+++ b/database/industries/siman/sekhouz/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E874F88E-7678-4F6F-9AF2-BD38FEC91AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5453E949-60C7-45F1-9CF6-314B2C776412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1399-09-22 (3)</t>
+  </si>
+  <si>
+    <t>1399-10-30</t>
+  </si>
+  <si>
+    <t>1401-02-31 (11)</t>
+  </si>
+  <si>
+    <t>1400-04-29</t>
+  </si>
+  <si>
+    <t>1400-09-17 (3)</t>
   </si>
   <si>
     <t>1400-10-30</t>
@@ -698,20 +728,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,8 +751,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +767,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -741,8 +783,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -750,8 +797,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,8 +813,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -772,8 +829,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,8 +843,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,29 +869,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -832,10 +929,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -843,115 +945,195 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>882567</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1087317</v>
+      </c>
+      <c r="F12" s="15">
+        <v>812517</v>
+      </c>
+      <c r="G12" s="15">
+        <v>556141</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1367508</v>
+      </c>
+      <c r="I12" s="15">
         <v>1609884</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>1664891</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>1861205</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>2173673</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>2806360</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>157210</v>
+      </c>
+      <c r="E13" s="11">
+        <v>307209</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1367373</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1517373</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1067373</v>
+      </c>
+      <c r="I13" s="11">
         <v>1252173</v>
       </c>
-      <c r="E13" s="11">
+      <c r="J13" s="11">
         <v>2067173</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>2867173</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>2867173</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>3067173</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>1489523</v>
+      </c>
+      <c r="E14" s="15">
+        <v>861687</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1238474</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1199429</v>
+      </c>
+      <c r="H14" s="15">
+        <v>1315883</v>
+      </c>
+      <c r="I14" s="15">
         <v>1158420</v>
       </c>
-      <c r="E14" s="15">
+      <c r="J14" s="15">
         <v>1299988</v>
       </c>
-      <c r="F14" s="15">
+      <c r="K14" s="15">
         <v>995205</v>
       </c>
-      <c r="G14" s="15">
+      <c r="L14" s="15">
         <v>1848900</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>1284074</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>789872</v>
+      </c>
+      <c r="E15" s="11">
+        <v>872315</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1009729</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1199729</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1240444</v>
+      </c>
+      <c r="I15" s="11">
         <v>1812740</v>
       </c>
-      <c r="E15" s="11">
+      <c r="J15" s="11">
         <v>2041796</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>2305340</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>2506969</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>2545648</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>513964</v>
+      </c>
+      <c r="E16" s="15">
+        <v>889331</v>
+      </c>
+      <c r="F16" s="15">
+        <v>395222</v>
+      </c>
+      <c r="G16" s="15">
+        <v>823314</v>
+      </c>
+      <c r="H16" s="15">
+        <v>579776</v>
+      </c>
+      <c r="I16" s="15">
         <v>766777</v>
       </c>
-      <c r="E16" s="15">
+      <c r="J16" s="15">
         <v>751845</v>
       </c>
-      <c r="F16" s="15">
+      <c r="K16" s="15">
         <v>691544</v>
       </c>
-      <c r="G16" s="15">
+      <c r="L16" s="15">
         <v>345123</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>399061</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -969,73 +1151,133 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>3833136</v>
+      </c>
+      <c r="E18" s="17">
+        <v>4017859</v>
+      </c>
+      <c r="F18" s="17">
+        <v>4823315</v>
+      </c>
+      <c r="G18" s="17">
+        <v>5295986</v>
+      </c>
+      <c r="H18" s="17">
+        <v>5570984</v>
+      </c>
+      <c r="I18" s="17">
         <v>6599994</v>
       </c>
-      <c r="E18" s="17">
+      <c r="J18" s="17">
         <v>7825693</v>
       </c>
-      <c r="F18" s="17">
+      <c r="K18" s="17">
         <v>8720467</v>
       </c>
-      <c r="G18" s="17">
+      <c r="L18" s="17">
         <v>9741838</v>
       </c>
-      <c r="H18" s="17">
+      <c r="M18" s="17">
         <v>10102316</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
+        <v>7717</v>
+      </c>
+      <c r="E19" s="11">
+        <v>5996</v>
+      </c>
+      <c r="F19" s="11">
+        <v>10064</v>
+      </c>
+      <c r="G19" s="11">
+        <v>12132</v>
+      </c>
+      <c r="H19" s="11">
+        <v>12455</v>
+      </c>
+      <c r="I19" s="11">
         <v>11273</v>
       </c>
-      <c r="E19" s="11">
+      <c r="J19" s="11">
         <v>11778</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>12444</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>16094</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>17161</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>831551</v>
+      </c>
+      <c r="E20" s="15">
+        <v>766722</v>
+      </c>
+      <c r="F20" s="15">
+        <v>725758</v>
+      </c>
+      <c r="G20" s="15">
+        <v>835948</v>
+      </c>
+      <c r="H20" s="15">
+        <v>812924</v>
+      </c>
+      <c r="I20" s="15">
         <v>722385</v>
       </c>
-      <c r="E20" s="15">
+      <c r="J20" s="15">
         <v>819464</v>
       </c>
-      <c r="F20" s="15">
+      <c r="K20" s="15">
         <v>819464</v>
       </c>
-      <c r="G20" s="15">
+      <c r="L20" s="15">
         <v>877496</v>
       </c>
-      <c r="H20" s="15">
+      <c r="M20" s="15">
         <v>877496</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1053,41 +1295,71 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>970228</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1034833</v>
+      </c>
+      <c r="F22" s="15">
+        <v>934792</v>
+      </c>
+      <c r="G22" s="15">
+        <v>943387</v>
+      </c>
+      <c r="H22" s="15">
+        <v>1095977</v>
+      </c>
+      <c r="I22" s="15">
         <v>1083808</v>
       </c>
-      <c r="E22" s="15">
+      <c r="J22" s="15">
         <v>1350535</v>
       </c>
-      <c r="F22" s="15">
+      <c r="K22" s="15">
         <v>1361432</v>
       </c>
-      <c r="G22" s="15">
+      <c r="L22" s="15">
         <v>1349065</v>
       </c>
-      <c r="H22" s="15">
+      <c r="M22" s="15">
         <v>1351788</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>66760</v>
+      </c>
+      <c r="E23" s="11">
+        <v>100012</v>
+      </c>
+      <c r="F23" s="11">
         <v>93030</v>
-      </c>
-      <c r="E23" s="11">
-        <v>93030</v>
-      </c>
-      <c r="F23" s="11">
-        <v>93532</v>
       </c>
       <c r="G23" s="11">
         <v>93030</v>
@@ -1095,94 +1367,169 @@
       <c r="H23" s="11">
         <v>93030</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="11">
+        <v>93030</v>
+      </c>
+      <c r="J23" s="11">
+        <v>93030</v>
+      </c>
+      <c r="K23" s="11">
+        <v>93532</v>
+      </c>
+      <c r="L23" s="11">
+        <v>93030</v>
+      </c>
+      <c r="M23" s="11">
+        <v>93030</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
+        <v>43983</v>
+      </c>
+      <c r="E25" s="11">
+        <v>49667</v>
+      </c>
+      <c r="F25" s="11">
+        <v>33376</v>
+      </c>
+      <c r="G25" s="11">
+        <v>33376</v>
+      </c>
+      <c r="H25" s="11">
+        <v>36171</v>
+      </c>
+      <c r="I25" s="11">
         <v>36918</v>
       </c>
-      <c r="E25" s="11">
+      <c r="J25" s="11">
         <v>37781</v>
       </c>
-      <c r="F25" s="11">
+      <c r="K25" s="11">
         <v>39071</v>
       </c>
-      <c r="G25" s="11">
+      <c r="L25" s="11">
         <v>29567</v>
       </c>
-      <c r="H25" s="11">
+      <c r="M25" s="11">
         <v>29403</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>1920239</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1957230</v>
+      </c>
+      <c r="F26" s="17">
+        <v>1797020</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1917873</v>
+      </c>
+      <c r="H26" s="17">
+        <v>2050557</v>
+      </c>
+      <c r="I26" s="17">
         <v>1947414</v>
       </c>
-      <c r="E26" s="17">
+      <c r="J26" s="17">
         <v>2312588</v>
       </c>
-      <c r="F26" s="17">
+      <c r="K26" s="17">
         <v>2325943</v>
       </c>
-      <c r="G26" s="17">
+      <c r="L26" s="17">
         <v>2365252</v>
       </c>
-      <c r="H26" s="17">
+      <c r="M26" s="17">
         <v>2368878</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>5753375</v>
+      </c>
+      <c r="E27" s="19">
+        <v>5975089</v>
+      </c>
+      <c r="F27" s="19">
+        <v>6620335</v>
+      </c>
+      <c r="G27" s="19">
+        <v>7213859</v>
+      </c>
+      <c r="H27" s="19">
+        <v>7621541</v>
+      </c>
+      <c r="I27" s="19">
         <v>8547408</v>
       </c>
-      <c r="E27" s="19">
+      <c r="J27" s="19">
         <v>10138281</v>
       </c>
-      <c r="F27" s="19">
+      <c r="K27" s="19">
         <v>11046410</v>
       </c>
-      <c r="G27" s="19">
+      <c r="L27" s="19">
         <v>12107090</v>
       </c>
-      <c r="H27" s="19">
+      <c r="M27" s="19">
         <v>12471194</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1190,136 +1537,231 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>776884</v>
+      </c>
+      <c r="E29" s="15">
+        <v>612886</v>
+      </c>
+      <c r="F29" s="15">
+        <v>820268</v>
+      </c>
+      <c r="G29" s="15">
+        <v>954300</v>
+      </c>
+      <c r="H29" s="15">
+        <v>1348850</v>
+      </c>
+      <c r="I29" s="15">
         <v>475513</v>
       </c>
-      <c r="E29" s="15">
+      <c r="J29" s="15">
         <v>1571666</v>
       </c>
-      <c r="F29" s="15">
+      <c r="K29" s="15">
         <v>1376887</v>
       </c>
-      <c r="G29" s="15">
+      <c r="L29" s="15">
         <v>3094064</v>
       </c>
-      <c r="H29" s="15">
+      <c r="M29" s="15">
         <v>1994988</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>187323</v>
+      </c>
+      <c r="E31" s="15">
+        <v>509664</v>
+      </c>
+      <c r="F31" s="15">
+        <v>591696</v>
+      </c>
+      <c r="G31" s="15">
+        <v>145482</v>
+      </c>
+      <c r="H31" s="15">
+        <v>706472</v>
+      </c>
+      <c r="I31" s="15">
         <v>997700</v>
       </c>
-      <c r="E31" s="15">
+      <c r="J31" s="15">
         <v>1007990</v>
       </c>
-      <c r="F31" s="15">
+      <c r="K31" s="15">
         <v>535412</v>
       </c>
-      <c r="G31" s="15">
+      <c r="L31" s="15">
         <v>763201</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>937401</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>47594</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>194106</v>
+      </c>
+      <c r="G32" s="11">
+        <v>237480</v>
+      </c>
+      <c r="H32" s="11">
+        <v>317376</v>
+      </c>
+      <c r="I32" s="11">
         <v>747424</v>
       </c>
-      <c r="E32" s="11">
+      <c r="J32" s="11">
         <v>257899</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>302873</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>307329</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>488465</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>1015014</v>
+      </c>
+      <c r="E33" s="15">
+        <v>204520</v>
+      </c>
+      <c r="F33" s="15">
+        <v>107917</v>
+      </c>
+      <c r="G33" s="15">
+        <v>2646779</v>
+      </c>
+      <c r="H33" s="15">
+        <v>1398079</v>
+      </c>
+      <c r="I33" s="15">
         <v>455772</v>
       </c>
-      <c r="E33" s="15">
+      <c r="J33" s="15">
         <v>226929</v>
       </c>
-      <c r="F33" s="15">
+      <c r="K33" s="15">
         <v>5019674</v>
       </c>
-      <c r="G33" s="15">
+      <c r="L33" s="15">
         <v>2330743</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>250170</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>0</v>
+        <v>284285</v>
       </c>
       <c r="E34" s="11">
-        <v>0</v>
+        <v>175955</v>
       </c>
       <c r="F34" s="11">
-        <v>0</v>
+        <v>86865</v>
       </c>
       <c r="G34" s="11">
-        <v>0</v>
+        <v>18955</v>
       </c>
       <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
         <v>600000</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1337,10 +1779,25 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1358,31 +1815,61 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>2311100</v>
+      </c>
+      <c r="E37" s="17">
+        <v>1503025</v>
+      </c>
+      <c r="F37" s="17">
+        <v>1800852</v>
+      </c>
+      <c r="G37" s="17">
+        <v>4002996</v>
+      </c>
+      <c r="H37" s="17">
+        <v>3770777</v>
+      </c>
+      <c r="I37" s="17">
         <v>2676409</v>
       </c>
-      <c r="E37" s="17">
+      <c r="J37" s="17">
         <v>3064484</v>
       </c>
-      <c r="F37" s="17">
+      <c r="K37" s="17">
         <v>7234846</v>
       </c>
-      <c r="G37" s="17">
+      <c r="L37" s="17">
         <v>6495337</v>
       </c>
-      <c r="H37" s="17">
+      <c r="M37" s="17">
         <v>4271024</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1400,31 +1887,61 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
@@ -1442,73 +1959,133 @@
       <c r="H40" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>123129</v>
+      </c>
+      <c r="E41" s="15">
+        <v>127961</v>
+      </c>
+      <c r="F41" s="15">
+        <v>121249</v>
+      </c>
+      <c r="G41" s="15">
+        <v>129249</v>
+      </c>
+      <c r="H41" s="15">
+        <v>176224</v>
+      </c>
+      <c r="I41" s="15">
         <v>177946</v>
       </c>
-      <c r="E41" s="15">
+      <c r="J41" s="15">
         <v>181100</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>278304</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>286887</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>301374</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>123129</v>
+      </c>
+      <c r="E42" s="19">
+        <v>127961</v>
+      </c>
+      <c r="F42" s="19">
+        <v>121249</v>
+      </c>
+      <c r="G42" s="19">
+        <v>129249</v>
+      </c>
+      <c r="H42" s="19">
+        <v>176224</v>
+      </c>
+      <c r="I42" s="19">
         <v>177946</v>
       </c>
-      <c r="E42" s="19">
+      <c r="J42" s="19">
         <v>181100</v>
       </c>
-      <c r="F42" s="19">
+      <c r="K42" s="19">
         <v>278304</v>
       </c>
-      <c r="G42" s="19">
+      <c r="L42" s="19">
         <v>286887</v>
       </c>
-      <c r="H42" s="19">
+      <c r="M42" s="19">
         <v>301374</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>2434229</v>
+      </c>
+      <c r="E43" s="17">
+        <v>1630986</v>
+      </c>
+      <c r="F43" s="17">
+        <v>1922101</v>
+      </c>
+      <c r="G43" s="17">
+        <v>4132245</v>
+      </c>
+      <c r="H43" s="17">
+        <v>3947001</v>
+      </c>
+      <c r="I43" s="17">
         <v>2854355</v>
       </c>
-      <c r="E43" s="17">
+      <c r="J43" s="17">
         <v>3245584</v>
       </c>
-      <c r="F43" s="17">
+      <c r="K43" s="17">
         <v>7513150</v>
       </c>
-      <c r="G43" s="17">
+      <c r="L43" s="17">
         <v>6782224</v>
       </c>
-      <c r="H43" s="17">
+      <c r="M43" s="17">
         <v>4572398</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -1516,10 +2093,15 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -1537,10 +2119,25 @@
       <c r="H45" s="15">
         <v>1400000</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="15">
+        <v>1400000</v>
+      </c>
+      <c r="J45" s="15">
+        <v>1400000</v>
+      </c>
+      <c r="K45" s="15">
+        <v>1400000</v>
+      </c>
+      <c r="L45" s="15">
+        <v>1400000</v>
+      </c>
+      <c r="M45" s="15">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1558,10 +2155,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1579,59 +2191,104 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>-84358</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <v>-48962</v>
+      </c>
+      <c r="I48" s="11">
         <v>-76481</v>
       </c>
-      <c r="E48" s="11">
+      <c r="J48" s="11">
         <v>-59888</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>-59888</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>-24915</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>-24915</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
         <v>0</v>
       </c>
       <c r="E49" s="15">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="15">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15">
+        <v>0</v>
+      </c>
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
         <v>19131</v>
       </c>
-      <c r="F49" s="15">
+      <c r="K49" s="15">
         <v>19131</v>
       </c>
-      <c r="G49" s="15">
+      <c r="L49" s="15">
         <v>41635</v>
       </c>
-      <c r="H49" s="15">
+      <c r="M49" s="15">
         <v>41635</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>140000</v>
+        <v>65000</v>
       </c>
       <c r="E50" s="11">
-        <v>140000</v>
+        <v>65000</v>
       </c>
       <c r="F50" s="11">
         <v>140000</v>
@@ -1642,10 +2299,25 @@
       <c r="H50" s="11">
         <v>140000</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I50" s="11">
+        <v>140000</v>
+      </c>
+      <c r="J50" s="11">
+        <v>140000</v>
+      </c>
+      <c r="K50" s="11">
+        <v>140000</v>
+      </c>
+      <c r="L50" s="11">
+        <v>140000</v>
+      </c>
+      <c r="M50" s="11">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -1663,31 +2335,61 @@
       <c r="H51" s="15">
         <v>529</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="15">
+        <v>529</v>
+      </c>
+      <c r="J51" s="15">
+        <v>529</v>
+      </c>
+      <c r="K51" s="15">
+        <v>529</v>
+      </c>
+      <c r="L51" s="15">
+        <v>529</v>
+      </c>
+      <c r="M51" s="15">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -1705,31 +2407,61 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -1747,71 +2479,131 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>1853617</v>
+      </c>
+      <c r="E56" s="11">
+        <v>2878574</v>
+      </c>
+      <c r="F56" s="11">
+        <v>3242063</v>
+      </c>
+      <c r="G56" s="11">
+        <v>1541085</v>
+      </c>
+      <c r="H56" s="11">
+        <v>2182973</v>
+      </c>
+      <c r="I56" s="11">
         <v>4229005</v>
       </c>
-      <c r="E56" s="11">
+      <c r="J56" s="11">
         <v>5392925</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>2033488</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>3767617</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>6341547</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>3319146</v>
+      </c>
+      <c r="E57" s="17">
+        <v>4344103</v>
+      </c>
+      <c r="F57" s="17">
+        <v>4698234</v>
+      </c>
+      <c r="G57" s="17">
+        <v>3081614</v>
+      </c>
+      <c r="H57" s="17">
+        <v>3674540</v>
+      </c>
+      <c r="I57" s="17">
         <v>5693053</v>
       </c>
-      <c r="E57" s="17">
+      <c r="J57" s="17">
         <v>6892697</v>
       </c>
-      <c r="F57" s="17">
+      <c r="K57" s="17">
         <v>3533260</v>
       </c>
-      <c r="G57" s="17">
+      <c r="L57" s="17">
         <v>5324866</v>
       </c>
-      <c r="H57" s="17">
+      <c r="M57" s="17">
         <v>7898796</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>5753375</v>
+      </c>
+      <c r="E58" s="19">
+        <v>5975089</v>
+      </c>
+      <c r="F58" s="19">
+        <v>6620335</v>
+      </c>
+      <c r="G58" s="19">
+        <v>7213859</v>
+      </c>
+      <c r="H58" s="19">
+        <v>7621541</v>
+      </c>
+      <c r="I58" s="19">
         <v>8547408</v>
       </c>
-      <c r="E58" s="19">
+      <c r="J58" s="19">
         <v>10138281</v>
       </c>
-      <c r="F58" s="19">
+      <c r="K58" s="19">
         <v>11046410</v>
       </c>
-      <c r="G58" s="19">
+      <c r="L58" s="19">
         <v>12107090</v>
       </c>
-      <c r="H58" s="19">
+      <c r="M58" s="19">
         <v>12471194</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1819,6 +2611,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/sekhouz/balancesheet/quarterly.xlsx
+++ b/database/industries/siman/sekhouz/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5453E949-60C7-45F1-9CF6-314B2C776412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F68228A-DE7D-4957-87E6-42A33374B268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-09-22 (3)</t>
-  </si>
-  <si>
     <t>1399-10-30</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1400-10-30</t>
   </si>
   <si>
-    <t>1401-10-28 (8)</t>
+    <t>1402-02-25 (10)</t>
   </si>
   <si>
     <t>1401-05-01</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-02-25 (2)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -732,18 +732,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -757,7 +758,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,7 +774,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -789,7 +790,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -803,7 +804,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,7 +820,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,7 +836,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -849,7 +850,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -885,7 +886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -921,7 +922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -935,7 +936,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -951,187 +952,187 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>882567</v>
+        <v>1087317</v>
       </c>
       <c r="E12" s="15">
-        <v>1087317</v>
+        <v>812517</v>
       </c>
       <c r="F12" s="15">
-        <v>812517</v>
+        <v>556141</v>
       </c>
       <c r="G12" s="15">
-        <v>556141</v>
+        <v>1367508</v>
       </c>
       <c r="H12" s="15">
-        <v>1367508</v>
+        <v>1609884</v>
       </c>
       <c r="I12" s="15">
-        <v>1609884</v>
+        <v>1664891</v>
       </c>
       <c r="J12" s="15">
-        <v>1664891</v>
+        <v>1861205</v>
       </c>
       <c r="K12" s="15">
-        <v>1861205</v>
+        <v>2173673</v>
       </c>
       <c r="L12" s="15">
-        <v>2173673</v>
+        <v>2806360</v>
       </c>
       <c r="M12" s="15">
-        <v>2806360</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2657283</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>157210</v>
+        <v>307209</v>
       </c>
       <c r="E13" s="11">
-        <v>307209</v>
+        <v>1367373</v>
       </c>
       <c r="F13" s="11">
-        <v>1367373</v>
+        <v>1517373</v>
       </c>
       <c r="G13" s="11">
-        <v>1517373</v>
+        <v>1067373</v>
       </c>
       <c r="H13" s="11">
-        <v>1067373</v>
+        <v>1252173</v>
       </c>
       <c r="I13" s="11">
-        <v>1252173</v>
+        <v>2067173</v>
       </c>
       <c r="J13" s="11">
-        <v>2067173</v>
+        <v>2867173</v>
       </c>
       <c r="K13" s="11">
         <v>2867173</v>
       </c>
       <c r="L13" s="11">
-        <v>2867173</v>
+        <v>3067173</v>
       </c>
       <c r="M13" s="11">
-        <v>3067173</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5362173</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>1489523</v>
+        <v>861687</v>
       </c>
       <c r="E14" s="15">
-        <v>861687</v>
+        <v>1238474</v>
       </c>
       <c r="F14" s="15">
-        <v>1238474</v>
+        <v>1199429</v>
       </c>
       <c r="G14" s="15">
-        <v>1199429</v>
+        <v>1315883</v>
       </c>
       <c r="H14" s="15">
-        <v>1315883</v>
+        <v>1158420</v>
       </c>
       <c r="I14" s="15">
-        <v>1158420</v>
+        <v>1299988</v>
       </c>
       <c r="J14" s="15">
-        <v>1299988</v>
+        <v>995205</v>
       </c>
       <c r="K14" s="15">
-        <v>995205</v>
+        <v>1848900</v>
       </c>
       <c r="L14" s="15">
-        <v>1848900</v>
+        <v>1284074</v>
       </c>
       <c r="M14" s="15">
-        <v>1284074</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2830471</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>789872</v>
+        <v>872315</v>
       </c>
       <c r="E15" s="11">
-        <v>872315</v>
+        <v>1009729</v>
       </c>
       <c r="F15" s="11">
-        <v>1009729</v>
+        <v>1199729</v>
       </c>
       <c r="G15" s="11">
-        <v>1199729</v>
+        <v>1240444</v>
       </c>
       <c r="H15" s="11">
-        <v>1240444</v>
+        <v>1812740</v>
       </c>
       <c r="I15" s="11">
-        <v>1812740</v>
+        <v>2041796</v>
       </c>
       <c r="J15" s="11">
-        <v>2041796</v>
+        <v>2305340</v>
       </c>
       <c r="K15" s="11">
-        <v>2305340</v>
+        <v>2506969</v>
       </c>
       <c r="L15" s="11">
-        <v>2506969</v>
+        <v>2545648</v>
       </c>
       <c r="M15" s="11">
-        <v>2545648</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3214507</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>513964</v>
+        <v>889331</v>
       </c>
       <c r="E16" s="15">
-        <v>889331</v>
+        <v>395222</v>
       </c>
       <c r="F16" s="15">
-        <v>395222</v>
+        <v>823314</v>
       </c>
       <c r="G16" s="15">
-        <v>823314</v>
+        <v>579776</v>
       </c>
       <c r="H16" s="15">
-        <v>579776</v>
+        <v>766777</v>
       </c>
       <c r="I16" s="15">
-        <v>766777</v>
+        <v>751845</v>
       </c>
       <c r="J16" s="15">
-        <v>751845</v>
+        <v>691544</v>
       </c>
       <c r="K16" s="15">
-        <v>691544</v>
+        <v>345123</v>
       </c>
       <c r="L16" s="15">
-        <v>345123</v>
+        <v>399061</v>
       </c>
       <c r="M16" s="15">
-        <v>399061</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>542690</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1167,115 +1168,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>3833136</v>
+        <v>4017859</v>
       </c>
       <c r="E18" s="17">
-        <v>4017859</v>
+        <v>4823315</v>
       </c>
       <c r="F18" s="17">
-        <v>4823315</v>
+        <v>5295986</v>
       </c>
       <c r="G18" s="17">
-        <v>5295986</v>
+        <v>5570984</v>
       </c>
       <c r="H18" s="17">
-        <v>5570984</v>
+        <v>6599994</v>
       </c>
       <c r="I18" s="17">
-        <v>6599994</v>
+        <v>7825693</v>
       </c>
       <c r="J18" s="17">
-        <v>7825693</v>
+        <v>8720467</v>
       </c>
       <c r="K18" s="17">
-        <v>8720467</v>
+        <v>9741838</v>
       </c>
       <c r="L18" s="17">
-        <v>9741838</v>
+        <v>10102316</v>
       </c>
       <c r="M18" s="17">
-        <v>10102316</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>14607124</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>7717</v>
+        <v>5996</v>
       </c>
       <c r="E19" s="11">
-        <v>5996</v>
+        <v>10064</v>
       </c>
       <c r="F19" s="11">
-        <v>10064</v>
+        <v>12132</v>
       </c>
       <c r="G19" s="11">
-        <v>12132</v>
+        <v>12455</v>
       </c>
       <c r="H19" s="11">
-        <v>12455</v>
+        <v>11273</v>
       </c>
       <c r="I19" s="11">
-        <v>11273</v>
+        <v>11778</v>
       </c>
       <c r="J19" s="11">
-        <v>11778</v>
+        <v>12444</v>
       </c>
       <c r="K19" s="11">
-        <v>12444</v>
+        <v>16094</v>
       </c>
       <c r="L19" s="11">
-        <v>16094</v>
+        <v>17161</v>
       </c>
       <c r="M19" s="11">
-        <v>17161</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>29738</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>831551</v>
+        <v>766722</v>
       </c>
       <c r="E20" s="15">
-        <v>766722</v>
+        <v>725758</v>
       </c>
       <c r="F20" s="15">
-        <v>725758</v>
+        <v>835948</v>
       </c>
       <c r="G20" s="15">
-        <v>835948</v>
+        <v>812924</v>
       </c>
       <c r="H20" s="15">
-        <v>812924</v>
+        <v>722385</v>
       </c>
       <c r="I20" s="15">
-        <v>722385</v>
+        <v>819464</v>
       </c>
       <c r="J20" s="15">
         <v>819464</v>
       </c>
       <c r="K20" s="15">
-        <v>819464</v>
+        <v>877496</v>
       </c>
       <c r="L20" s="15">
         <v>877496</v>
       </c>
       <c r="M20" s="15">
-        <v>877496</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>931763</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1311,52 +1312,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>970228</v>
+        <v>1034833</v>
       </c>
       <c r="E22" s="15">
-        <v>1034833</v>
+        <v>934792</v>
       </c>
       <c r="F22" s="15">
-        <v>934792</v>
+        <v>943387</v>
       </c>
       <c r="G22" s="15">
-        <v>943387</v>
+        <v>1095977</v>
       </c>
       <c r="H22" s="15">
-        <v>1095977</v>
+        <v>1083808</v>
       </c>
       <c r="I22" s="15">
-        <v>1083808</v>
+        <v>1350535</v>
       </c>
       <c r="J22" s="15">
-        <v>1350535</v>
+        <v>1361432</v>
       </c>
       <c r="K22" s="15">
-        <v>1361432</v>
+        <v>1349065</v>
       </c>
       <c r="L22" s="15">
-        <v>1349065</v>
+        <v>1351788</v>
       </c>
       <c r="M22" s="15">
-        <v>1351788</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1435286</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>66760</v>
+        <v>100012</v>
       </c>
       <c r="E23" s="11">
-        <v>100012</v>
+        <v>93030</v>
       </c>
       <c r="F23" s="11">
         <v>93030</v>
@@ -1371,10 +1372,10 @@
         <v>93030</v>
       </c>
       <c r="J23" s="11">
+        <v>93532</v>
+      </c>
+      <c r="K23" s="11">
         <v>93030</v>
-      </c>
-      <c r="K23" s="11">
-        <v>93532</v>
       </c>
       <c r="L23" s="11">
         <v>93030</v>
@@ -1383,7 +1384,7 @@
         <v>93030</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1419,115 +1420,115 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>43983</v>
+        <v>49667</v>
       </c>
       <c r="E25" s="11">
-        <v>49667</v>
+        <v>33376</v>
       </c>
       <c r="F25" s="11">
         <v>33376</v>
       </c>
       <c r="G25" s="11">
-        <v>33376</v>
+        <v>36171</v>
       </c>
       <c r="H25" s="11">
-        <v>36171</v>
+        <v>36918</v>
       </c>
       <c r="I25" s="11">
-        <v>36918</v>
+        <v>37781</v>
       </c>
       <c r="J25" s="11">
-        <v>37781</v>
+        <v>39071</v>
       </c>
       <c r="K25" s="11">
-        <v>39071</v>
+        <v>29567</v>
       </c>
       <c r="L25" s="11">
-        <v>29567</v>
+        <v>29403</v>
       </c>
       <c r="M25" s="11">
-        <v>29403</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>30460</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>1920239</v>
+        <v>1957230</v>
       </c>
       <c r="E26" s="17">
-        <v>1957230</v>
+        <v>1797020</v>
       </c>
       <c r="F26" s="17">
-        <v>1797020</v>
+        <v>1917873</v>
       </c>
       <c r="G26" s="17">
-        <v>1917873</v>
+        <v>2050557</v>
       </c>
       <c r="H26" s="17">
-        <v>2050557</v>
+        <v>1947414</v>
       </c>
       <c r="I26" s="17">
-        <v>1947414</v>
+        <v>2312588</v>
       </c>
       <c r="J26" s="17">
-        <v>2312588</v>
+        <v>2325943</v>
       </c>
       <c r="K26" s="17">
-        <v>2325943</v>
+        <v>2365252</v>
       </c>
       <c r="L26" s="17">
-        <v>2365252</v>
+        <v>2368878</v>
       </c>
       <c r="M26" s="17">
-        <v>2368878</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2520277</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>5753375</v>
+        <v>5975089</v>
       </c>
       <c r="E27" s="19">
-        <v>5975089</v>
+        <v>6620335</v>
       </c>
       <c r="F27" s="19">
-        <v>6620335</v>
+        <v>7213859</v>
       </c>
       <c r="G27" s="19">
-        <v>7213859</v>
+        <v>7621541</v>
       </c>
       <c r="H27" s="19">
-        <v>7621541</v>
+        <v>8547408</v>
       </c>
       <c r="I27" s="19">
-        <v>8547408</v>
+        <v>10138281</v>
       </c>
       <c r="J27" s="19">
-        <v>10138281</v>
+        <v>11046410</v>
       </c>
       <c r="K27" s="19">
-        <v>11046410</v>
+        <v>12107090</v>
       </c>
       <c r="L27" s="19">
-        <v>12107090</v>
+        <v>12471194</v>
       </c>
       <c r="M27" s="19">
-        <v>12471194</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>17127401</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
@@ -1543,43 +1544,43 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>776884</v>
+        <v>612886</v>
       </c>
       <c r="E29" s="15">
-        <v>612886</v>
+        <v>820268</v>
       </c>
       <c r="F29" s="15">
-        <v>820268</v>
+        <v>954300</v>
       </c>
       <c r="G29" s="15">
-        <v>954300</v>
+        <v>1348850</v>
       </c>
       <c r="H29" s="15">
-        <v>1348850</v>
+        <v>475513</v>
       </c>
       <c r="I29" s="15">
-        <v>475513</v>
+        <v>1571666</v>
       </c>
       <c r="J29" s="15">
-        <v>1571666</v>
+        <v>1376887</v>
       </c>
       <c r="K29" s="15">
-        <v>1376887</v>
+        <v>3094064</v>
       </c>
       <c r="L29" s="15">
-        <v>3094064</v>
+        <v>1994988</v>
       </c>
       <c r="M29" s="15">
-        <v>1994988</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2261831</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
@@ -1615,130 +1616,130 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>187323</v>
+        <v>509664</v>
       </c>
       <c r="E31" s="15">
-        <v>509664</v>
+        <v>591696</v>
       </c>
       <c r="F31" s="15">
-        <v>591696</v>
+        <v>145482</v>
       </c>
       <c r="G31" s="15">
-        <v>145482</v>
+        <v>706472</v>
       </c>
       <c r="H31" s="15">
-        <v>706472</v>
+        <v>997700</v>
       </c>
       <c r="I31" s="15">
-        <v>997700</v>
+        <v>1007990</v>
       </c>
       <c r="J31" s="15">
-        <v>1007990</v>
+        <v>535412</v>
       </c>
       <c r="K31" s="15">
-        <v>535412</v>
+        <v>763201</v>
       </c>
       <c r="L31" s="15">
-        <v>763201</v>
+        <v>937401</v>
       </c>
       <c r="M31" s="15">
-        <v>937401</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1017482</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>47594</v>
+        <v>0</v>
       </c>
       <c r="E32" s="11">
-        <v>0</v>
+        <v>194106</v>
       </c>
       <c r="F32" s="11">
-        <v>194106</v>
+        <v>237480</v>
       </c>
       <c r="G32" s="11">
-        <v>237480</v>
+        <v>317376</v>
       </c>
       <c r="H32" s="11">
-        <v>317376</v>
+        <v>747424</v>
       </c>
       <c r="I32" s="11">
-        <v>747424</v>
+        <v>257899</v>
       </c>
       <c r="J32" s="11">
-        <v>257899</v>
+        <v>302873</v>
       </c>
       <c r="K32" s="11">
-        <v>302873</v>
+        <v>307329</v>
       </c>
       <c r="L32" s="11">
-        <v>307329</v>
+        <v>488465</v>
       </c>
       <c r="M32" s="11">
-        <v>488465</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>596108</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>1015014</v>
+        <v>204520</v>
       </c>
       <c r="E33" s="15">
-        <v>204520</v>
+        <v>107917</v>
       </c>
       <c r="F33" s="15">
-        <v>107917</v>
+        <v>2646779</v>
       </c>
       <c r="G33" s="15">
-        <v>2646779</v>
+        <v>1398079</v>
       </c>
       <c r="H33" s="15">
-        <v>1398079</v>
+        <v>455772</v>
       </c>
       <c r="I33" s="15">
-        <v>455772</v>
+        <v>226929</v>
       </c>
       <c r="J33" s="15">
-        <v>226929</v>
+        <v>5019674</v>
       </c>
       <c r="K33" s="15">
-        <v>5019674</v>
+        <v>2330743</v>
       </c>
       <c r="L33" s="15">
-        <v>2330743</v>
+        <v>250170</v>
       </c>
       <c r="M33" s="15">
-        <v>250170</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>250332</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>284285</v>
+        <v>175955</v>
       </c>
       <c r="E34" s="11">
-        <v>175955</v>
+        <v>86865</v>
       </c>
       <c r="F34" s="11">
-        <v>86865</v>
+        <v>18955</v>
       </c>
       <c r="G34" s="11">
-        <v>18955</v>
+        <v>0</v>
       </c>
       <c r="H34" s="11">
         <v>0</v>
@@ -1753,13 +1754,13 @@
         <v>0</v>
       </c>
       <c r="L34" s="11">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="M34" s="11">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>457667</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>51</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
@@ -1831,43 +1832,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>2311100</v>
+        <v>1503025</v>
       </c>
       <c r="E37" s="17">
-        <v>1503025</v>
+        <v>1800852</v>
       </c>
       <c r="F37" s="17">
-        <v>1800852</v>
+        <v>4002996</v>
       </c>
       <c r="G37" s="17">
-        <v>4002996</v>
+        <v>3770777</v>
       </c>
       <c r="H37" s="17">
-        <v>3770777</v>
+        <v>2676409</v>
       </c>
       <c r="I37" s="17">
-        <v>2676409</v>
+        <v>3064484</v>
       </c>
       <c r="J37" s="17">
-        <v>3064484</v>
+        <v>7234846</v>
       </c>
       <c r="K37" s="17">
-        <v>7234846</v>
+        <v>6495337</v>
       </c>
       <c r="L37" s="17">
-        <v>6495337</v>
+        <v>4271024</v>
       </c>
       <c r="M37" s="17">
-        <v>4271024</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4583420</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1939,7 +1940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
@@ -1975,115 +1976,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>123129</v>
+        <v>127961</v>
       </c>
       <c r="E41" s="15">
-        <v>127961</v>
+        <v>121249</v>
       </c>
       <c r="F41" s="15">
-        <v>121249</v>
+        <v>129249</v>
       </c>
       <c r="G41" s="15">
-        <v>129249</v>
+        <v>176224</v>
       </c>
       <c r="H41" s="15">
-        <v>176224</v>
+        <v>177946</v>
       </c>
       <c r="I41" s="15">
-        <v>177946</v>
+        <v>181100</v>
       </c>
       <c r="J41" s="15">
-        <v>181100</v>
+        <v>278304</v>
       </c>
       <c r="K41" s="15">
-        <v>278304</v>
+        <v>286887</v>
       </c>
       <c r="L41" s="15">
-        <v>286887</v>
+        <v>301374</v>
       </c>
       <c r="M41" s="15">
-        <v>301374</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>309809</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>123129</v>
+        <v>127961</v>
       </c>
       <c r="E42" s="19">
-        <v>127961</v>
+        <v>121249</v>
       </c>
       <c r="F42" s="19">
-        <v>121249</v>
+        <v>129249</v>
       </c>
       <c r="G42" s="19">
-        <v>129249</v>
+        <v>176224</v>
       </c>
       <c r="H42" s="19">
-        <v>176224</v>
+        <v>177946</v>
       </c>
       <c r="I42" s="19">
-        <v>177946</v>
+        <v>181100</v>
       </c>
       <c r="J42" s="19">
-        <v>181100</v>
+        <v>278304</v>
       </c>
       <c r="K42" s="19">
-        <v>278304</v>
+        <v>286887</v>
       </c>
       <c r="L42" s="19">
-        <v>286887</v>
+        <v>301374</v>
       </c>
       <c r="M42" s="19">
-        <v>301374</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <v>309809</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>2434229</v>
+        <v>1630986</v>
       </c>
       <c r="E43" s="17">
-        <v>1630986</v>
+        <v>1922101</v>
       </c>
       <c r="F43" s="17">
-        <v>1922101</v>
+        <v>4132245</v>
       </c>
       <c r="G43" s="17">
-        <v>4132245</v>
+        <v>3947001</v>
       </c>
       <c r="H43" s="17">
-        <v>3947001</v>
+        <v>2854355</v>
       </c>
       <c r="I43" s="17">
-        <v>2854355</v>
+        <v>3245584</v>
       </c>
       <c r="J43" s="17">
-        <v>3245584</v>
+        <v>7513150</v>
       </c>
       <c r="K43" s="17">
-        <v>7513150</v>
+        <v>6782224</v>
       </c>
       <c r="L43" s="17">
-        <v>6782224</v>
+        <v>4572398</v>
       </c>
       <c r="M43" s="17">
-        <v>4572398</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4893229</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -2099,7 +2100,7 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2216,34 +2217,34 @@
         <v>0</v>
       </c>
       <c r="E48" s="11">
-        <v>0</v>
+        <v>-84358</v>
       </c>
       <c r="F48" s="11">
-        <v>-84358</v>
+        <v>0</v>
       </c>
       <c r="G48" s="11">
-        <v>0</v>
+        <v>-48962</v>
       </c>
       <c r="H48" s="11">
-        <v>-48962</v>
+        <v>-76481</v>
       </c>
       <c r="I48" s="11">
-        <v>-76481</v>
+        <v>-59888</v>
       </c>
       <c r="J48" s="11">
         <v>-59888</v>
       </c>
       <c r="K48" s="11">
-        <v>-59888</v>
+        <v>-24915</v>
       </c>
       <c r="L48" s="11">
         <v>-24915</v>
       </c>
       <c r="M48" s="11">
-        <v>-24915</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-8028</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2264,22 +2265,22 @@
         <v>0</v>
       </c>
       <c r="I49" s="15">
-        <v>0</v>
+        <v>19131</v>
       </c>
       <c r="J49" s="15">
         <v>19131</v>
       </c>
       <c r="K49" s="15">
-        <v>19131</v>
+        <v>41635</v>
       </c>
       <c r="L49" s="15">
         <v>41635</v>
       </c>
       <c r="M49" s="15">
-        <v>41635</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+        <v>81477</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>65000</v>
       </c>
       <c r="E50" s="11">
-        <v>65000</v>
+        <v>140000</v>
       </c>
       <c r="F50" s="11">
         <v>140000</v>
@@ -2315,7 +2316,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>67</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>71</v>
       </c>
@@ -2495,115 +2496,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>1853617</v>
+        <v>2878574</v>
       </c>
       <c r="E56" s="11">
-        <v>2878574</v>
+        <v>3242063</v>
       </c>
       <c r="F56" s="11">
-        <v>3242063</v>
+        <v>1541085</v>
       </c>
       <c r="G56" s="11">
-        <v>1541085</v>
+        <v>2182973</v>
       </c>
       <c r="H56" s="11">
-        <v>2182973</v>
+        <v>4229005</v>
       </c>
       <c r="I56" s="11">
-        <v>4229005</v>
+        <v>5392925</v>
       </c>
       <c r="J56" s="11">
-        <v>5392925</v>
+        <v>2033488</v>
       </c>
       <c r="K56" s="11">
-        <v>2033488</v>
+        <v>3767617</v>
       </c>
       <c r="L56" s="11">
-        <v>3767617</v>
+        <v>6341547</v>
       </c>
       <c r="M56" s="11">
-        <v>6341547</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+        <v>10620194</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>3319146</v>
+        <v>4344103</v>
       </c>
       <c r="E57" s="17">
-        <v>4344103</v>
+        <v>4698234</v>
       </c>
       <c r="F57" s="17">
-        <v>4698234</v>
+        <v>3081614</v>
       </c>
       <c r="G57" s="17">
-        <v>3081614</v>
+        <v>3674540</v>
       </c>
       <c r="H57" s="17">
-        <v>3674540</v>
+        <v>5693053</v>
       </c>
       <c r="I57" s="17">
-        <v>5693053</v>
+        <v>6892697</v>
       </c>
       <c r="J57" s="17">
-        <v>6892697</v>
+        <v>3533260</v>
       </c>
       <c r="K57" s="17">
-        <v>3533260</v>
+        <v>5324866</v>
       </c>
       <c r="L57" s="17">
-        <v>5324866</v>
+        <v>7898796</v>
       </c>
       <c r="M57" s="17">
-        <v>7898796</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+        <v>12234172</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>5753375</v>
+        <v>5975089</v>
       </c>
       <c r="E58" s="19">
-        <v>5975089</v>
+        <v>6620335</v>
       </c>
       <c r="F58" s="19">
-        <v>6620335</v>
+        <v>7213859</v>
       </c>
       <c r="G58" s="19">
-        <v>7213859</v>
+        <v>7621541</v>
       </c>
       <c r="H58" s="19">
-        <v>7621541</v>
+        <v>8547408</v>
       </c>
       <c r="I58" s="19">
-        <v>8547408</v>
+        <v>10138281</v>
       </c>
       <c r="J58" s="19">
-        <v>10138281</v>
+        <v>11046410</v>
       </c>
       <c r="K58" s="19">
-        <v>11046410</v>
+        <v>12107090</v>
       </c>
       <c r="L58" s="19">
-        <v>12107090</v>
+        <v>12471194</v>
       </c>
       <c r="M58" s="19">
-        <v>12471194</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+        <v>17127401</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
